--- a/Leasing/Mapeos_UBI_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_UBI_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583" activeTab="1"/>
+    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="8" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="285">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -521,15 +521,9 @@
     <t>C_TIPO_PERSON</t>
   </si>
   <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
     <t>C_IDENTIFICACION</t>
   </si>
   <si>
-    <t>NUMBER</t>
-  </si>
-  <si>
     <t>I_TIPO_IDEN</t>
   </si>
   <si>
@@ -1158,6 +1152,90 @@
   </si>
   <si>
     <t>Validaciones Generales INMUEBLES /7. Búsqueda del Tipo Relación Ubicación Recurso</t>
+  </si>
+  <si>
+    <t>NUMBER(22)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(25)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>DATE(7)</t>
+  </si>
+  <si>
+    <t>NUMBER(15,2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(38)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(60)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(250)</t>
+  </si>
+  <si>
+    <t>I_NUM_RADIC</t>
+  </si>
+  <si>
+    <t>C_CLASE</t>
+  </si>
+  <si>
+    <t>C_MATRICULA</t>
+  </si>
+  <si>
+    <t>F_FEC_ESCRI</t>
+  </si>
+  <si>
+    <t>C_LINDEROS</t>
+  </si>
+  <si>
+    <t>C_ESTADO</t>
+  </si>
+  <si>
+    <t>C_DESCRIPCION</t>
+  </si>
+  <si>
+    <t>D_VALOR_COM</t>
+  </si>
+  <si>
+    <t>D_VLR_REP</t>
+  </si>
+  <si>
+    <t>I_SEGURO</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2207,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2215,8 +2293,6 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="85" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="85" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2346,6 +2422,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -2825,7 +2914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2836,8 +2925,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R92"/>
   <sheetViews>
-    <sheetView topLeftCell="K24" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2874,28 +2963,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
+      <c r="D2" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
         <v>32</v>
       </c>
@@ -2906,13 +2995,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
         <v>33</v>
       </c>
@@ -2923,11 +3012,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2939,29 +3028,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="108" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3019,39 +3108,39 @@
       <c r="C9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>16</v>
+      <c r="D9" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="53">
+      <c r="I9" s="51">
         <v>85</v>
       </c>
-      <c r="J9" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="51">
+      <c r="J9" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="89"/>
+      <c r="M9" s="49">
         <v>85</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" s="60" t="s">
+      <c r="N9" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="O9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="64"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
@@ -3060,38 +3149,38 @@
       <c r="C10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>46</v>
+      <c r="D10" s="57" t="s">
+        <v>258</v>
       </c>
       <c r="E10" s="36">
         <v>1</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="54">
+      <c r="I10" s="52">
         <v>86</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="L10" s="91"/>
-      <c r="M10" s="75">
+        <v>177</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="M10" s="73">
         <v>94</v>
       </c>
-      <c r="N10" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="59" t="s">
+      <c r="N10" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="59" t="s">
+      <c r="Q10" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -3101,40 +3190,40 @@
         <v>3</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>259</v>
       </c>
       <c r="E11" s="36">
         <v>15</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="65"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="54">
+      <c r="I11" s="52">
         <v>87</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="76">
+        <v>170</v>
+      </c>
+      <c r="L11" s="89"/>
+      <c r="M11" s="74">
         <v>87</v>
       </c>
-      <c r="N11" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O11" s="59" t="s">
+      <c r="N11" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="59" t="s">
+      <c r="Q11" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -3144,38 +3233,38 @@
         <v>4</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="67"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="54">
+      <c r="I12" s="52">
         <v>88</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="76">
+        <v>172</v>
+      </c>
+      <c r="L12" s="89"/>
+      <c r="M12" s="74">
         <v>88</v>
       </c>
-      <c r="N12" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O12" s="59" t="s">
+      <c r="N12" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="59" t="s">
+      <c r="Q12" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -3185,36 +3274,38 @@
         <v>5</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="45"/>
+        <v>48</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="68"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="54">
+      <c r="I13" s="52">
         <v>89</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="75">
+        <v>173</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="90"/>
+      <c r="M13" s="73">
         <v>89</v>
       </c>
-      <c r="N13" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O13" s="59" t="s">
+      <c r="N13" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="Q13" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -3224,36 +3315,38 @@
         <v>6</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>260</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="68"/>
+      <c r="G14" s="66"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="54">
+      <c r="I14" s="52">
         <v>90</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="L14" s="92"/>
-      <c r="M14" s="75">
+        <v>175</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" s="90"/>
+      <c r="M14" s="73">
         <v>90</v>
       </c>
-      <c r="N14" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="59" t="s">
+      <c r="N14" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="59" t="s">
+      <c r="Q14" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -3263,38 +3356,38 @@
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="68"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="54">
+      <c r="I15" s="52">
         <v>91</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="K15" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="L15" s="92"/>
-      <c r="M15" s="75">
+        <v>176</v>
+      </c>
+      <c r="K15" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="L15" s="90"/>
+      <c r="M15" s="73">
         <v>92</v>
       </c>
-      <c r="N15" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O15" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="59" t="s">
+      <c r="N15" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="59" t="s">
+      <c r="Q15" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -3304,36 +3397,38 @@
         <v>8</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="68"/>
+      <c r="G16" s="66"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="54">
+      <c r="I16" s="52">
         <v>92</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="75">
+        <v>179</v>
+      </c>
+      <c r="L16" s="90"/>
+      <c r="M16" s="73">
         <v>96</v>
       </c>
-      <c r="N16" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O16" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" s="59" t="s">
+      <c r="N16" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="59" t="s">
+      <c r="Q16" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -3343,36 +3438,38 @@
         <v>9</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>258</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="66"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="54">
+      <c r="I17" s="52">
         <v>93</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="92"/>
-      <c r="M17" s="75">
+        <v>180</v>
+      </c>
+      <c r="L17" s="90"/>
+      <c r="M17" s="73">
         <v>61</v>
       </c>
-      <c r="N17" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="59" t="s">
+      <c r="N17" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -3382,153 +3479,161 @@
         <v>10</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>262</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="68"/>
+      <c r="G18" s="66"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="54">
+      <c r="I18" s="52">
         <v>94</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="K18" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="77">
+        <v>182</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="L18" s="90"/>
+      <c r="M18" s="75">
         <v>93</v>
       </c>
-      <c r="N18" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="O18" s="74" t="s">
+      <c r="N18" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="74" t="s">
+      <c r="P18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="74" t="s">
+      <c r="Q18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="76"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>11</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>258</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="68"/>
+      <c r="G19" s="66"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="54">
+      <c r="I19" s="52">
         <v>95</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="L19" s="93"/>
-      <c r="M19" s="88">
+        <v>183</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="L19" s="91"/>
+      <c r="M19" s="86">
         <v>14</v>
       </c>
-      <c r="N19" s="63" t="s">
-        <v>211</v>
-      </c>
-      <c r="O19" s="63" t="s">
+      <c r="N19" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="62"/>
+      <c r="R19" s="60"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>12</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="68"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="54">
+      <c r="I20" s="52">
         <v>96</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="94"/>
-      <c r="M20" s="84">
+        <v>184</v>
+      </c>
+      <c r="K20" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="L20" s="92"/>
+      <c r="M20" s="82">
         <v>86</v>
       </c>
-      <c r="N20" s="60" t="s">
-        <v>212</v>
-      </c>
-      <c r="O20" s="60" t="s">
+      <c r="N20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="60" t="s">
+      <c r="P20" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="49"/>
+      <c r="R20" s="47"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26"/>
+        <v>56</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="66"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="54">
+      <c r="I21" s="52">
         <v>97</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="K21" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="52">
+        <v>185</v>
+      </c>
+      <c r="K21" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="93"/>
+      <c r="M21" s="50">
         <v>95</v>
       </c>
-      <c r="N21" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O21" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="59" t="s">
+      <c r="N21" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="59" t="s">
+      <c r="Q21" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R21" s="35"/>
@@ -3540,38 +3645,38 @@
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>46</v>
+      <c r="D22" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="E22" s="26">
         <v>50</v>
       </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="68"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="54">
+      <c r="I22" s="52">
         <v>98</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="76">
+        <v>190</v>
+      </c>
+      <c r="L22" s="93"/>
+      <c r="M22" s="74">
         <v>87</v>
       </c>
-      <c r="N22" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O22" s="59" t="s">
+      <c r="N22" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="P22" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="59" t="s">
+      <c r="Q22" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="35"/>
@@ -3581,36 +3686,38 @@
         <v>15</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E23" s="26"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="68"/>
+      <c r="G23" s="66"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="54">
+      <c r="I23" s="52">
         <v>99</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="65" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="95"/>
-      <c r="M23" s="76">
+        <v>187</v>
+      </c>
+      <c r="K23" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="93"/>
+      <c r="M23" s="74">
         <v>88</v>
       </c>
-      <c r="N23" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O23" s="59" t="s">
+      <c r="N23" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="59" t="s">
+      <c r="P23" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="59" t="s">
+      <c r="Q23" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="35"/>
@@ -3620,40 +3727,40 @@
         <v>16</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="E24" s="26">
         <v>15</v>
       </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="68"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="54">
+      <c r="I24" s="52">
         <v>100</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="K24" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="52">
+        <v>188</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" s="93"/>
+      <c r="M24" s="50">
         <v>89</v>
       </c>
-      <c r="N24" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O24" s="59" t="s">
+      <c r="N24" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="59" t="s">
+      <c r="P24" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="59" t="s">
+      <c r="Q24" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="35"/>
@@ -3663,36 +3770,38 @@
         <v>17</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="26"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>265</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="43"/>
-      <c r="G25" s="68"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="54">
+      <c r="I25" s="52">
         <v>101</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="95"/>
-      <c r="M25" s="52">
+        <v>189</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" s="93"/>
+      <c r="M25" s="50">
         <v>91</v>
       </c>
-      <c r="N25" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O25" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="P25" s="59" t="s">
+      <c r="N25" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P25" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="59" t="s">
+      <c r="Q25" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="35"/>
@@ -3702,36 +3811,38 @@
         <v>18</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>265</v>
+      </c>
       <c r="E26" s="26"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="37"/>
-      <c r="I26" s="54">
+      <c r="I26" s="52">
         <v>102</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" s="95"/>
-      <c r="M26" s="52">
+        <v>192</v>
+      </c>
+      <c r="L26" s="93"/>
+      <c r="M26" s="50">
         <v>92</v>
       </c>
-      <c r="N26" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O26" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="59" t="s">
+      <c r="N26" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="59" t="s">
+      <c r="Q26" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="35"/>
@@ -3741,38 +3852,38 @@
         <v>19</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>19</v>
+        <v>61</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="43"/>
-      <c r="G27" s="68"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="37"/>
-      <c r="I27" s="54">
+      <c r="I27" s="52">
         <v>103</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="K27" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="L27" s="95"/>
-      <c r="M27" s="52">
+        <v>193</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" s="93"/>
+      <c r="M27" s="50">
         <v>97</v>
       </c>
-      <c r="N27" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O27" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="P27" s="59" t="s">
+      <c r="N27" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="59" t="s">
+      <c r="Q27" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="35"/>
@@ -3782,36 +3893,38 @@
         <v>20</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E28" s="26"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="68"/>
+      <c r="G28" s="66"/>
       <c r="H28" s="37"/>
-      <c r="I28" s="54">
+      <c r="I28" s="52">
         <v>104</v>
       </c>
-      <c r="J28" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="L28" s="95"/>
-      <c r="M28" s="52">
+      <c r="J28" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" s="93"/>
+      <c r="M28" s="50">
         <v>61</v>
       </c>
-      <c r="N28" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="O28" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="P28" s="59" t="s">
+      <c r="N28" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="59" t="s">
+      <c r="Q28" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R28" s="35"/>
@@ -3821,237 +3934,243 @@
         <v>21</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>16</v>
+        <v>63</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="43"/>
-      <c r="G29" s="68"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="54">
+      <c r="I29" s="52">
         <v>105</v>
       </c>
-      <c r="J29" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="L29" s="95"/>
-      <c r="M29" s="89">
+      <c r="J29" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" s="93"/>
+      <c r="M29" s="87">
         <v>93</v>
       </c>
-      <c r="N29" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="O29" s="74" t="s">
+      <c r="N29" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="74" t="s">
+      <c r="P29" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="74" t="s">
+      <c r="Q29" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="78"/>
+      <c r="R29" s="76"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
         <v>22</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="26"/>
+        <v>64</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="43"/>
-      <c r="G30" s="68"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="37"/>
-      <c r="I30" s="54">
+      <c r="I30" s="52">
         <v>106</v>
       </c>
-      <c r="J30" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="L30" s="96"/>
-      <c r="M30" s="87">
+      <c r="J30" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" s="94"/>
+      <c r="M30" s="85">
         <v>15</v>
       </c>
-      <c r="N30" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="O30" s="63" t="s">
+      <c r="N30" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="63" t="s">
+      <c r="P30" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="Q30" s="63" t="s">
+      <c r="Q30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="62"/>
+      <c r="R30" s="60"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="42">
         <v>23</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E31" s="26"/>
       <c r="F31" s="43"/>
-      <c r="G31" s="68"/>
+      <c r="G31" s="66"/>
       <c r="H31" s="37"/>
-      <c r="I31" s="54">
+      <c r="I31" s="52">
         <v>107</v>
       </c>
-      <c r="J31" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="K31" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="L31" s="94"/>
-      <c r="M31" s="51">
+      <c r="J31" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="92"/>
+      <c r="M31" s="49">
         <v>87</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="O31" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="O31" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="60" t="s">
+      <c r="P31" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="60" t="s">
+      <c r="Q31" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R31" s="64"/>
+      <c r="R31" s="62"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="42">
         <v>24</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>16</v>
+        <v>66</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="68"/>
+      <c r="G32" s="66"/>
       <c r="H32" s="37"/>
-      <c r="I32" s="54">
+      <c r="I32" s="52">
         <v>108</v>
       </c>
-      <c r="J32" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="52">
+      <c r="J32" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="K32" s="63" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" s="93"/>
+      <c r="M32" s="50">
         <v>98</v>
       </c>
-      <c r="N32" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O32" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="P32" s="59" t="s">
+      <c r="N32" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="P32" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="59" t="s">
+      <c r="Q32" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R32" s="70"/>
+      <c r="R32" s="68"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
         <v>25</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>16</v>
+        <v>67</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>264</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="43"/>
-      <c r="G33" s="68"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="37"/>
-      <c r="I33" s="54">
+      <c r="I33" s="52">
         <v>109</v>
       </c>
-      <c r="J33" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="K33" s="65" t="s">
-        <v>242</v>
-      </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="52">
+      <c r="J33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="63" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" s="93"/>
+      <c r="M33" s="50">
         <v>85</v>
       </c>
-      <c r="N33" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O33" s="59" t="s">
+      <c r="N33" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P33" s="59" t="s">
+      <c r="P33" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="59" t="s">
+      <c r="Q33" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="70"/>
+      <c r="R33" s="68"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="25">
         <v>26</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E34" s="26"/>
       <c r="F34" s="43"/>
-      <c r="G34" s="68"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="37"/>
-      <c r="I34" s="54">
+      <c r="I34" s="52">
         <v>110</v>
       </c>
-      <c r="J34" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" s="95"/>
-      <c r="M34" s="52">
+      <c r="J34" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="93"/>
+      <c r="M34" s="50">
         <v>99</v>
       </c>
-      <c r="N34" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="P34" s="59" t="s">
+      <c r="N34" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="59" t="s">
+      <c r="Q34" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R34" s="35"/>
@@ -4061,36 +4180,38 @@
         <v>27</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="26"/>
+        <v>69</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>266</v>
+      </c>
       <c r="E35" s="26"/>
       <c r="F35" s="43"/>
-      <c r="G35" s="68"/>
+      <c r="G35" s="66"/>
       <c r="H35" s="37"/>
-      <c r="I35" s="54">
+      <c r="I35" s="52">
         <v>111</v>
       </c>
-      <c r="J35" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="K35" s="65" t="s">
-        <v>244</v>
-      </c>
-      <c r="L35" s="95"/>
-      <c r="M35" s="52">
+      <c r="J35" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="L35" s="93"/>
+      <c r="M35" s="50">
         <v>100</v>
       </c>
-      <c r="N35" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O35" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="P35" s="56" t="s">
+      <c r="N35" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="56" t="s">
+      <c r="Q35" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R35" s="35"/>
@@ -4100,40 +4221,40 @@
         <v>28</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>258</v>
       </c>
       <c r="E36" s="26">
         <v>3</v>
       </c>
       <c r="F36" s="43"/>
-      <c r="G36" s="68"/>
+      <c r="G36" s="66"/>
       <c r="H36" s="37"/>
-      <c r="I36" s="54">
+      <c r="I36" s="52">
         <v>112</v>
       </c>
-      <c r="J36" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="65" t="s">
-        <v>245</v>
-      </c>
-      <c r="L36" s="95"/>
-      <c r="M36" s="76">
+      <c r="J36" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="L36" s="93"/>
+      <c r="M36" s="74">
         <v>87</v>
       </c>
-      <c r="N36" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O36" s="59" t="s">
+      <c r="N36" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O36" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P36" s="59" t="s">
+      <c r="P36" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="59" t="s">
+      <c r="Q36" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="35"/>
@@ -4143,40 +4264,40 @@
         <v>29</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>263</v>
       </c>
       <c r="E37" s="26">
         <v>50</v>
       </c>
       <c r="F37" s="43"/>
-      <c r="G37" s="68"/>
+      <c r="G37" s="66"/>
       <c r="H37" s="37"/>
-      <c r="I37" s="54">
+      <c r="I37" s="52">
         <v>113</v>
       </c>
-      <c r="J37" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="K37" s="65" t="s">
-        <v>246</v>
-      </c>
-      <c r="L37" s="95"/>
-      <c r="M37" s="76">
+      <c r="J37" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" s="63" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" s="93"/>
+      <c r="M37" s="74">
         <v>88</v>
       </c>
-      <c r="N37" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O37" s="59" t="s">
+      <c r="N37" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="59" t="s">
+      <c r="P37" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" s="59" t="s">
+      <c r="Q37" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="35"/>
@@ -4186,40 +4307,40 @@
         <v>30</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D38" s="57" t="s">
+        <v>267</v>
       </c>
       <c r="E38" s="26">
         <v>50</v>
       </c>
       <c r="F38" s="43"/>
-      <c r="G38" s="68"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="54">
+      <c r="I38" s="52">
         <v>114</v>
       </c>
-      <c r="J38" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="K38" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="L38" s="95"/>
-      <c r="M38" s="52">
+      <c r="J38" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="63" t="s">
+        <v>245</v>
+      </c>
+      <c r="L38" s="93"/>
+      <c r="M38" s="50">
         <v>89</v>
       </c>
-      <c r="N38" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="O38" s="59" t="s">
+      <c r="N38" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="O38" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="59" t="s">
+      <c r="P38" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="59" t="s">
+      <c r="Q38" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="35"/>
@@ -4229,120 +4350,122 @@
         <v>31</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>46</v>
+        <v>73</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>258</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
       </c>
       <c r="F39" s="43"/>
-      <c r="G39" s="68"/>
+      <c r="G39" s="66"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="54">
+      <c r="I39" s="52">
         <v>115</v>
       </c>
-      <c r="J39" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="K39" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="L39" s="95"/>
-      <c r="M39" s="90">
+      <c r="J39" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="L39" s="93"/>
+      <c r="M39" s="88">
         <v>93</v>
       </c>
-      <c r="N39" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="O39" s="80" t="s">
+      <c r="N39" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="O39" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="80" t="s">
+      <c r="P39" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="80" t="s">
+      <c r="Q39" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="81"/>
+      <c r="R39" s="79"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="42">
         <v>32</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="26"/>
+        <v>74</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E40" s="26"/>
       <c r="F40" s="43"/>
-      <c r="G40" s="68"/>
+      <c r="G40" s="66"/>
       <c r="H40" s="37"/>
-      <c r="I40" s="54">
+      <c r="I40" s="52">
         <v>116</v>
       </c>
-      <c r="J40" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="K40" s="65" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" s="94"/>
-      <c r="M40" s="51">
+      <c r="J40" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="K40" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="L40" s="92"/>
+      <c r="M40" s="49">
         <v>87</v>
       </c>
-      <c r="N40" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="O40" s="60" t="s">
+      <c r="N40" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="O40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="60" t="s">
+      <c r="P40" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="60" t="s">
+      <c r="Q40" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R40" s="49"/>
+      <c r="R40" s="47"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="42">
         <v>33</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="68"/>
+      <c r="G41" s="66"/>
       <c r="H41" s="37"/>
-      <c r="I41" s="54">
+      <c r="I41" s="52">
         <v>117</v>
       </c>
-      <c r="J41" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="K41" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="L41" s="95"/>
-      <c r="M41" s="76">
+      <c r="J41" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" s="93"/>
+      <c r="M41" s="74">
         <v>98</v>
       </c>
-      <c r="N41" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O41" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="P41" s="59" t="s">
+      <c r="N41" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O41" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="P41" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="59" t="s">
+      <c r="Q41" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
@@ -4352,36 +4475,38 @@
         <v>34</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="26"/>
+        <v>76</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>258</v>
+      </c>
       <c r="E42" s="26"/>
       <c r="F42" s="43"/>
-      <c r="G42" s="68"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="55">
+      <c r="I42" s="53">
         <v>118</v>
       </c>
-      <c r="J42" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="K42" s="107" t="s">
-        <v>251</v>
-      </c>
-      <c r="L42" s="95"/>
-      <c r="M42" s="76">
+      <c r="J42" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="105" t="s">
+        <v>249</v>
+      </c>
+      <c r="L42" s="93"/>
+      <c r="M42" s="74">
         <v>86</v>
       </c>
-      <c r="N42" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O42" s="59" t="s">
+      <c r="N42" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O42" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="59" t="s">
+      <c r="P42" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="59" t="s">
+      <c r="Q42" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="33"/>
@@ -4391,27 +4516,29 @@
         <v>35</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>262</v>
+      </c>
       <c r="E43" s="26"/>
       <c r="F43" s="43"/>
-      <c r="G43" s="68"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="37"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="76">
+      <c r="L43" s="81"/>
+      <c r="M43" s="74">
         <v>99</v>
       </c>
-      <c r="N43" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O43" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="P43" s="59" t="s">
+      <c r="N43" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O43" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="P43" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="59" t="s">
+      <c r="Q43" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="33"/>
@@ -4421,27 +4548,29 @@
         <v>36</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="26"/>
+        <v>78</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E44" s="26"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="68"/>
+      <c r="G44" s="66"/>
       <c r="H44" s="37"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="76">
+      <c r="L44" s="81"/>
+      <c r="M44" s="74">
         <v>101</v>
       </c>
-      <c r="N44" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O44" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="P44" s="56" t="s">
+      <c r="N44" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O44" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="P44" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="56" t="s">
+      <c r="Q44" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="33"/>
@@ -4451,27 +4580,29 @@
         <v>37</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="26"/>
+        <v>79</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E45" s="26"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="68"/>
+      <c r="G45" s="66"/>
       <c r="H45" s="37"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="76">
+      <c r="L45" s="81"/>
+      <c r="M45" s="74">
         <v>87</v>
       </c>
-      <c r="N45" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O45" s="59" t="s">
+      <c r="N45" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P45" s="59" t="s">
+      <c r="P45" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="59" t="s">
+      <c r="Q45" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
@@ -4481,27 +4612,29 @@
         <v>38</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="26"/>
+        <v>80</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E46" s="26"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="68"/>
+      <c r="G46" s="66"/>
       <c r="H46" s="37"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="76">
+      <c r="L46" s="81"/>
+      <c r="M46" s="74">
         <v>88</v>
       </c>
-      <c r="N46" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O46" s="59" t="s">
+      <c r="N46" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O46" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P46" s="59" t="s">
+      <c r="P46" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="59" t="s">
+      <c r="Q46" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
@@ -4511,27 +4644,29 @@
         <v>39</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="26"/>
+        <v>81</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E47" s="26"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="68"/>
+      <c r="G47" s="66"/>
       <c r="H47" s="37"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="76">
+      <c r="L47" s="81"/>
+      <c r="M47" s="74">
         <v>89</v>
       </c>
-      <c r="N47" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="O47" s="59" t="s">
+      <c r="N47" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="O47" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P47" s="59" t="s">
+      <c r="P47" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="59" t="s">
+      <c r="Q47" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
@@ -4541,91 +4676,93 @@
         <v>40</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>16</v>
+        <v>82</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="68"/>
+      <c r="G48" s="66"/>
       <c r="H48" s="37"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="90">
+      <c r="L48" s="84"/>
+      <c r="M48" s="88">
         <v>93</v>
       </c>
-      <c r="N48" s="80" t="s">
-        <v>214</v>
-      </c>
-      <c r="O48" s="80" t="s">
+      <c r="N48" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="80" t="s">
+      <c r="P48" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="80" t="s">
+      <c r="Q48" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="81"/>
+      <c r="R48" s="79"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="42">
         <v>41</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="26"/>
+        <v>83</v>
+      </c>
+      <c r="D49" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E49" s="26"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="68"/>
+      <c r="G49" s="66"/>
       <c r="H49" s="37"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="84">
+      <c r="L49" s="80"/>
+      <c r="M49" s="82">
         <v>85</v>
       </c>
       <c r="N49" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="O49" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="O49" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="60" t="s">
+      <c r="P49" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="60" t="s">
+      <c r="Q49" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="49"/>
+      <c r="R49" s="47"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="42">
         <v>42</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>258</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="68"/>
+      <c r="G50" s="66"/>
       <c r="H50" s="37"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="52">
+      <c r="L50" s="81"/>
+      <c r="M50" s="50">
         <v>92</v>
       </c>
-      <c r="N50" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O50" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="P50" s="59" t="s">
+      <c r="N50" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O50" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="P50" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q50" s="59" t="s">
+      <c r="Q50" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R50" s="35"/>
@@ -4635,29 +4772,29 @@
         <v>43</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="68"/>
+      <c r="G51" s="66"/>
       <c r="H51" s="37"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="52">
+      <c r="L51" s="81"/>
+      <c r="M51" s="50">
         <v>92</v>
       </c>
-      <c r="N51" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O51" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="P51" s="59" t="s">
+      <c r="N51" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O51" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="P51" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q51" s="59" t="s">
+      <c r="Q51" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="35"/>
@@ -4667,27 +4804,29 @@
         <v>44</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="26"/>
+        <v>86</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E52" s="26"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="68"/>
+      <c r="G52" s="66"/>
       <c r="H52" s="37"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="52">
+      <c r="L52" s="81"/>
+      <c r="M52" s="50">
         <v>92</v>
       </c>
-      <c r="N52" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O52" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="P52" s="59" t="s">
+      <c r="N52" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O52" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P52" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="59" t="s">
+      <c r="Q52" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="35"/>
@@ -4697,87 +4836,93 @@
         <v>45</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="26"/>
+        <v>87</v>
+      </c>
+      <c r="D53" s="57" t="s">
+        <v>268</v>
+      </c>
       <c r="E53" s="26"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="68"/>
+      <c r="G53" s="66"/>
       <c r="H53" s="37"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="52">
+      <c r="L53" s="81"/>
+      <c r="M53" s="50">
         <v>92</v>
       </c>
-      <c r="N53" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O53" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="P53" s="59" t="s">
+      <c r="N53" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O53" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="P53" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q53" s="59" t="s">
+      <c r="Q53" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="70"/>
+      <c r="R53" s="68"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="25">
         <v>46</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E54" s="26"/>
       <c r="F54" s="43"/>
-      <c r="G54" s="68"/>
+      <c r="G54" s="66"/>
       <c r="H54" s="37"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="52">
+      <c r="L54" s="81"/>
+      <c r="M54" s="50">
         <v>102</v>
       </c>
-      <c r="N54" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O54" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="P54" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q54" s="59" t="s">
+      <c r="N54" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O54" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="P54" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q54" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R54" s="70"/>
+      <c r="R54" s="68"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="25">
         <v>47</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="26"/>
+        <v>89</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>269</v>
+      </c>
       <c r="E55" s="26"/>
       <c r="F55" s="43"/>
-      <c r="G55" s="68"/>
+      <c r="G55" s="66"/>
       <c r="H55" s="37"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="76">
+      <c r="L55" s="81"/>
+      <c r="M55" s="74">
         <v>103</v>
       </c>
-      <c r="N55" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O55" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="P55" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q55" s="59" t="s">
+      <c r="N55" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O55" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="P55" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q55" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R55" s="35"/>
@@ -4787,27 +4932,29 @@
         <v>48</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="26"/>
+        <v>90</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E56" s="26"/>
       <c r="F56" s="43"/>
-      <c r="G56" s="68"/>
+      <c r="G56" s="66"/>
       <c r="H56" s="37"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="76">
+      <c r="L56" s="81"/>
+      <c r="M56" s="74">
         <v>104</v>
       </c>
-      <c r="N56" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O56" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="P56" s="59" t="s">
+      <c r="N56" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O56" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="P56" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q56" s="59" t="s">
+      <c r="Q56" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R56" s="35"/>
@@ -4817,27 +4964,29 @@
         <v>49</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="D57" s="57" t="s">
+        <v>263</v>
+      </c>
       <c r="E57" s="26"/>
       <c r="F57" s="43"/>
-      <c r="G57" s="68"/>
+      <c r="G57" s="66"/>
       <c r="H57" s="37"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="76">
+      <c r="L57" s="81"/>
+      <c r="M57" s="74">
         <v>105</v>
       </c>
-      <c r="N57" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O57" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="P57" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q57" s="59" t="s">
+      <c r="N57" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O57" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="P57" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q57" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R57" s="35"/>
@@ -4847,27 +4996,29 @@
         <v>50</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="26"/>
+        <v>92</v>
+      </c>
+      <c r="D58" s="57" t="s">
+        <v>270</v>
+      </c>
       <c r="E58" s="26"/>
       <c r="F58" s="43"/>
-      <c r="G58" s="68"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="37"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="76">
+      <c r="L58" s="81"/>
+      <c r="M58" s="74">
         <v>106</v>
       </c>
-      <c r="N58" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O58" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="P58" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q58" s="59" t="s">
+      <c r="N58" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O58" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="P58" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q58" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="35"/>
@@ -4877,27 +5028,29 @@
         <v>51</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="26"/>
+        <v>93</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>258</v>
+      </c>
       <c r="E59" s="26"/>
       <c r="F59" s="43"/>
-      <c r="G59" s="68"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="37"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="76">
+      <c r="L59" s="81"/>
+      <c r="M59" s="74">
         <v>107</v>
       </c>
-      <c r="N59" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O59" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="P59" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q59" s="59" t="s">
+      <c r="N59" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="P59" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q59" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R59" s="35"/>
@@ -4907,27 +5060,29 @@
         <v>52</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>266</v>
+      </c>
       <c r="E60" s="26"/>
       <c r="F60" s="43"/>
-      <c r="G60" s="68"/>
+      <c r="G60" s="66"/>
       <c r="H60" s="37"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="76">
+      <c r="L60" s="81"/>
+      <c r="M60" s="74">
         <v>108</v>
       </c>
-      <c r="N60" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O60" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="P60" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q60" s="59" t="s">
+      <c r="N60" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O60" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="P60" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q60" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R60" s="35"/>
@@ -4937,27 +5092,29 @@
         <v>53</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="26"/>
+        <v>95</v>
+      </c>
+      <c r="D61" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E61" s="26"/>
       <c r="F61" s="43"/>
-      <c r="G61" s="68"/>
+      <c r="G61" s="66"/>
       <c r="H61" s="37"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="76">
+      <c r="L61" s="81"/>
+      <c r="M61" s="74">
         <v>109</v>
       </c>
-      <c r="N61" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O61" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="P61" s="59" t="s">
+      <c r="N61" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O61" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="P61" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="59" t="s">
+      <c r="Q61" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="35"/>
@@ -4967,29 +5124,29 @@
         <v>54</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="D62" s="57" t="s">
+        <v>257</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="43"/>
-      <c r="G62" s="68"/>
+      <c r="G62" s="66"/>
       <c r="H62" s="37"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="76">
+      <c r="L62" s="81"/>
+      <c r="M62" s="74">
         <v>110</v>
       </c>
-      <c r="N62" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O62" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="P62" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q62" s="59" t="s">
+      <c r="N62" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O62" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="P62" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q62" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R62" s="35"/>
@@ -4999,27 +5156,29 @@
         <v>55</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="D63" s="57" t="s">
+        <v>271</v>
+      </c>
       <c r="E63" s="26"/>
       <c r="F63" s="43"/>
-      <c r="G63" s="68"/>
+      <c r="G63" s="66"/>
       <c r="H63" s="37"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="76">
+      <c r="L63" s="81"/>
+      <c r="M63" s="74">
         <v>111</v>
       </c>
-      <c r="N63" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O63" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="P63" s="56" t="s">
+      <c r="N63" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O63" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q63" s="59" t="s">
+      <c r="Q63" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R63" s="35"/>
@@ -5029,87 +5188,93 @@
         <v>56</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="26"/>
+        <v>98</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>259</v>
+      </c>
       <c r="E64" s="26"/>
       <c r="F64" s="43"/>
-      <c r="G64" s="68"/>
+      <c r="G64" s="66"/>
       <c r="H64" s="37"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="76">
+      <c r="L64" s="81"/>
+      <c r="M64" s="74">
         <v>112</v>
       </c>
-      <c r="N64" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O64" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="P64" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q64" s="59" t="s">
+      <c r="N64" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O64" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="P64" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q64" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="70"/>
+      <c r="R64" s="68"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="25">
         <v>57</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="26"/>
+        <v>99</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>266</v>
+      </c>
       <c r="E65" s="26"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="68"/>
+      <c r="G65" s="66"/>
       <c r="H65" s="37"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="76">
+      <c r="L65" s="81"/>
+      <c r="M65" s="74">
         <v>113</v>
       </c>
-      <c r="N65" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O65" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="P65" s="56" t="s">
+      <c r="N65" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O65" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q65" s="59" t="s">
+      <c r="Q65" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="70"/>
+      <c r="R65" s="68"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="25">
         <v>58</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E66" s="26"/>
       <c r="F66" s="43"/>
-      <c r="G66" s="68"/>
+      <c r="G66" s="66"/>
       <c r="H66" s="37"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="76">
+      <c r="L66" s="81"/>
+      <c r="M66" s="74">
         <v>114</v>
       </c>
-      <c r="N66" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O66" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="P66" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q66" s="59" t="s">
+      <c r="N66" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O66" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="P66" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q66" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R66" s="35"/>
@@ -5119,27 +5284,29 @@
         <v>59</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>258</v>
+      </c>
       <c r="E67" s="26"/>
       <c r="F67" s="43"/>
-      <c r="G67" s="68"/>
+      <c r="G67" s="66"/>
       <c r="H67" s="37"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="76">
+      <c r="L67" s="81"/>
+      <c r="M67" s="74">
         <v>115</v>
       </c>
-      <c r="N67" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O67" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="P67" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q67" s="59" t="s">
+      <c r="N67" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O67" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="P67" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q67" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R67" s="35"/>
@@ -5149,27 +5316,29 @@
         <v>60</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E68" s="26"/>
       <c r="F68" s="43"/>
-      <c r="G68" s="68"/>
+      <c r="G68" s="66"/>
       <c r="H68" s="37"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="52">
+      <c r="L68" s="81"/>
+      <c r="M68" s="50">
         <v>92</v>
       </c>
-      <c r="N68" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="O68" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="P68" s="59" t="s">
+      <c r="N68" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="O68" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="P68" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q68" s="59" t="s">
+      <c r="Q68" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R68" s="35"/>
@@ -5179,89 +5348,93 @@
         <v>61</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="43"/>
-      <c r="G69" s="68"/>
+      <c r="G69" s="66"/>
       <c r="H69" s="37"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="72">
+      <c r="L69" s="81"/>
+      <c r="M69" s="70">
         <v>14</v>
       </c>
-      <c r="N69" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="O69" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="P69" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q69" s="61" t="s">
+      <c r="N69" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="O69" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="P69" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q69" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="79"/>
+      <c r="R69" s="77"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="25">
         <v>62</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="26"/>
+        <v>104</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E70" s="26"/>
       <c r="F70" s="43"/>
-      <c r="G70" s="68"/>
+      <c r="G70" s="66"/>
       <c r="H70" s="37"/>
-      <c r="L70" s="82"/>
-      <c r="M70" s="51">
+      <c r="L70" s="80"/>
+      <c r="M70" s="49">
         <v>86</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="O70" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="O70" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P70" s="60" t="s">
+      <c r="P70" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q70" s="60" t="s">
+      <c r="Q70" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R70" s="49"/>
+      <c r="R70" s="47"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="25">
         <v>63</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="26"/>
+        <v>105</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E71" s="26"/>
       <c r="F71" s="43"/>
-      <c r="G71" s="68"/>
+      <c r="G71" s="66"/>
       <c r="H71" s="37"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="52">
+      <c r="L71" s="81"/>
+      <c r="M71" s="50">
         <v>98</v>
       </c>
-      <c r="N71" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="O71" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="P71" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q71" s="59" t="s">
+      <c r="N71" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="O71" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q71" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R71" s="35"/>
@@ -5271,27 +5444,29 @@
         <v>64</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="26"/>
+        <v>106</v>
+      </c>
+      <c r="D72" s="57" t="s">
+        <v>260</v>
+      </c>
       <c r="E72" s="26"/>
       <c r="F72" s="43"/>
-      <c r="G72" s="68"/>
+      <c r="G72" s="66"/>
       <c r="H72" s="37"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="76">
+      <c r="L72" s="81"/>
+      <c r="M72" s="74">
         <v>116</v>
       </c>
-      <c r="N72" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="O72" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="P72" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q72" s="59" t="s">
+      <c r="N72" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="O72" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="P72" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q72" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R72" s="35"/>
@@ -5301,27 +5476,29 @@
         <v>65</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="26"/>
+        <v>107</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="43"/>
-      <c r="G73" s="68"/>
+      <c r="G73" s="66"/>
       <c r="H73" s="37"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="76">
+      <c r="L73" s="81"/>
+      <c r="M73" s="74">
         <v>117</v>
       </c>
-      <c r="N73" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="O73" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="P73" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q73" s="59" t="s">
+      <c r="N73" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="O73" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="P73" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q73" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R73" s="35"/>
@@ -5331,27 +5508,29 @@
         <v>66</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="26"/>
+        <v>108</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E74" s="26"/>
       <c r="F74" s="43"/>
-      <c r="G74" s="68"/>
+      <c r="G74" s="66"/>
       <c r="H74" s="37"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="76">
+      <c r="L74" s="81"/>
+      <c r="M74" s="74">
         <v>118</v>
       </c>
-      <c r="N74" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="O74" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="P74" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q74" s="59" t="s">
+      <c r="N74" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="O74" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="P74" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q74" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R74" s="35"/>
@@ -5361,42 +5540,46 @@
         <v>67</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="26"/>
+        <v>109</v>
+      </c>
+      <c r="D75" s="57" t="s">
+        <v>268</v>
+      </c>
       <c r="E75" s="26"/>
       <c r="F75" s="43"/>
-      <c r="G75" s="68"/>
+      <c r="G75" s="66"/>
       <c r="H75" s="37"/>
-      <c r="L75" s="86"/>
-      <c r="M75" s="72">
+      <c r="L75" s="84"/>
+      <c r="M75" s="70">
         <v>93</v>
       </c>
-      <c r="N75" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="O75" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="P75" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q75" s="61" t="s">
+      <c r="N75" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="O75" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="P75" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q75" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="73"/>
+      <c r="R75" s="71"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="42">
         <v>68</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="26"/>
+        <v>110</v>
+      </c>
+      <c r="D76" s="57" t="s">
+        <v>268</v>
+      </c>
       <c r="E76" s="26"/>
       <c r="F76" s="43"/>
-      <c r="G76" s="68"/>
+      <c r="G76" s="66"/>
       <c r="H76" s="37"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
@@ -5404,12 +5587,14 @@
         <v>69</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="26"/>
+        <v>111</v>
+      </c>
+      <c r="D77" s="57" t="s">
+        <v>268</v>
+      </c>
       <c r="E77" s="26"/>
       <c r="F77" s="43"/>
-      <c r="G77" s="68"/>
+      <c r="G77" s="66"/>
       <c r="H77" s="37"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
@@ -5417,12 +5602,14 @@
         <v>70</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="26"/>
+        <v>112</v>
+      </c>
+      <c r="D78" s="57" t="s">
+        <v>268</v>
+      </c>
       <c r="E78" s="26"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="68"/>
+      <c r="G78" s="66"/>
       <c r="H78" s="37"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
@@ -5432,10 +5619,12 @@
       <c r="C79" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="26"/>
+      <c r="D79" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E79" s="26"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="68"/>
+      <c r="G79" s="66"/>
       <c r="H79" s="37"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
@@ -5445,10 +5634,12 @@
       <c r="C80" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="26"/>
+      <c r="D80" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E80" s="26"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="68"/>
+      <c r="G80" s="66"/>
       <c r="H80" s="37"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
@@ -5456,12 +5647,14 @@
         <v>73</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="26"/>
+        <v>113</v>
+      </c>
+      <c r="D81" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E81" s="26"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="68"/>
+      <c r="G81" s="66"/>
       <c r="H81" s="37"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
@@ -5469,12 +5662,14 @@
         <v>74</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="26"/>
+        <v>114</v>
+      </c>
+      <c r="D82" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E82" s="26"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="68"/>
+      <c r="G82" s="66"/>
       <c r="H82" s="37"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
@@ -5482,12 +5677,14 @@
         <v>75</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="26"/>
+        <v>115</v>
+      </c>
+      <c r="D83" s="57" t="s">
+        <v>257</v>
+      </c>
       <c r="E83" s="26"/>
       <c r="F83" s="43"/>
-      <c r="G83" s="68"/>
+      <c r="G83" s="66"/>
       <c r="H83" s="37"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
@@ -5495,12 +5692,14 @@
         <v>76</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="26"/>
+        <v>116</v>
+      </c>
+      <c r="D84" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E84" s="26"/>
       <c r="F84" s="43"/>
-      <c r="G84" s="68"/>
+      <c r="G84" s="66"/>
       <c r="H84" s="37"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
@@ -5508,12 +5707,14 @@
         <v>77</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="26"/>
+        <v>117</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>261</v>
+      </c>
       <c r="E85" s="26"/>
       <c r="F85" s="43"/>
-      <c r="G85" s="68"/>
+      <c r="G85" s="66"/>
       <c r="H85" s="37"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
@@ -5521,12 +5722,14 @@
         <v>78</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="26"/>
+        <v>118</v>
+      </c>
+      <c r="D86" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E86" s="26"/>
       <c r="F86" s="43"/>
-      <c r="G86" s="68"/>
+      <c r="G86" s="66"/>
       <c r="H86" s="37"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
@@ -5534,12 +5737,14 @@
         <v>79</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="D87" s="57" t="s">
+        <v>272</v>
+      </c>
       <c r="E87" s="26"/>
       <c r="F87" s="43"/>
-      <c r="G87" s="68"/>
+      <c r="G87" s="66"/>
       <c r="H87" s="37"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
@@ -5547,12 +5752,14 @@
         <v>80</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="26"/>
+        <v>120</v>
+      </c>
+      <c r="D88" s="57" t="s">
+        <v>262</v>
+      </c>
       <c r="E88" s="26"/>
       <c r="F88" s="43"/>
-      <c r="G88" s="68"/>
+      <c r="G88" s="66"/>
       <c r="H88" s="37"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
@@ -5560,12 +5767,14 @@
         <v>81</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="D89" s="57" t="s">
+        <v>272</v>
+      </c>
       <c r="E89" s="26"/>
       <c r="F89" s="43"/>
-      <c r="G89" s="68"/>
+      <c r="G89" s="66"/>
       <c r="H89" s="37"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
@@ -5573,12 +5782,14 @@
         <v>82</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="26"/>
+        <v>122</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E90" s="26"/>
       <c r="F90" s="43"/>
-      <c r="G90" s="68"/>
+      <c r="G90" s="66"/>
       <c r="H90" s="37"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
@@ -5586,25 +5797,29 @@
         <v>83</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="26"/>
+        <v>123</v>
+      </c>
+      <c r="D91" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E91" s="26"/>
       <c r="F91" s="43"/>
-      <c r="G91" s="68"/>
+      <c r="G91" s="66"/>
       <c r="H91" s="37"/>
     </row>
     <row r="92" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="71">
+      <c r="B92" s="69">
         <v>84</v>
       </c>
-      <c r="C92" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="41"/>
+      <c r="C92" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="57" t="s">
+        <v>264</v>
+      </c>
       <c r="E92" s="41"/>
       <c r="F92" s="44"/>
-      <c r="G92" s="69"/>
+      <c r="G92" s="67"/>
       <c r="H92" s="38"/>
     </row>
   </sheetData>
@@ -5626,10 +5841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R92"/>
+  <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5637,7 +5852,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -5666,28 +5881,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="47"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
         <v>32</v>
       </c>
@@ -5698,13 +5913,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="118"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
         <v>33</v>
       </c>
@@ -5715,11 +5930,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="119"/>
-      <c r="F5" s="120"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5731,29 +5946,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="110"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="108" t="s">
+      <c r="M7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5808,82 +6023,80 @@
       <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="46" t="s">
-        <v>16</v>
+      <c r="D9" s="58" t="s">
+        <v>257</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="66"/>
+      <c r="G9" s="125"/>
       <c r="H9" s="37"/>
-      <c r="I9" s="104">
-        <v>85</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="L9" s="97"/>
-      <c r="M9" s="51">
-        <v>85</v>
+      <c r="I9" s="102">
+        <v>15</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>250</v>
+      </c>
+      <c r="L9" s="95"/>
+      <c r="M9" s="49">
+        <v>15</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="O9" s="60" t="s">
+        <v>220</v>
+      </c>
+      <c r="O9" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="64"/>
+      <c r="R9" s="62"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="36">
-        <v>1</v>
-      </c>
+      <c r="C10" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="67"/>
+      <c r="G10" s="126"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="76">
-        <v>86</v>
+      <c r="I10" s="74">
+        <v>16</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="75">
-        <v>86</v>
+        <v>216</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="95"/>
+      <c r="M10" s="73">
+        <v>16</v>
       </c>
       <c r="N10" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O10" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="59" t="s">
+      <c r="Q10" s="57" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -5892,41 +6105,39 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="36">
-        <v>15</v>
-      </c>
+      <c r="C11" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="36"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="67"/>
+      <c r="G11" s="126"/>
       <c r="H11" s="37"/>
-      <c r="I11" s="76">
-        <v>87</v>
+      <c r="I11" s="74">
+        <v>17</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="76">
-        <v>87</v>
+        <v>170</v>
+      </c>
+      <c r="L11" s="95"/>
+      <c r="M11" s="74">
+        <v>17</v>
       </c>
       <c r="N11" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O11" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="59" t="s">
+      <c r="Q11" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -5936,38 +6147,38 @@
         <v>4</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>273</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="67"/>
+      <c r="G12" s="126"/>
       <c r="H12" s="37"/>
-      <c r="I12" s="76">
-        <v>88</v>
+      <c r="I12" s="74">
+        <v>18</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="76">
-        <v>88</v>
+        <v>172</v>
+      </c>
+      <c r="L12" s="95"/>
+      <c r="M12" s="74">
+        <v>18</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O12" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="59" t="s">
+      <c r="P12" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="59" t="s">
+      <c r="Q12" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -5976,37 +6187,39 @@
       <c r="B13" s="42">
         <v>5</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="45"/>
+      <c r="C13" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="E13" s="26"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="68"/>
+      <c r="G13" s="127"/>
       <c r="H13" s="37"/>
-      <c r="I13" s="76">
-        <v>89</v>
+      <c r="I13" s="74">
+        <v>19</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="65" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" s="83"/>
-      <c r="M13" s="75">
-        <v>89</v>
+        <v>173</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="81"/>
+      <c r="M13" s="73">
+        <v>19</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O13" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="59" t="s">
+      <c r="P13" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="59" t="s">
+      <c r="Q13" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -6015,37 +6228,39 @@
       <c r="B14" s="42">
         <v>6</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="E14" s="26"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="68"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="37"/>
-      <c r="I14" s="76">
-        <v>90</v>
+      <c r="I14" s="74">
+        <v>20</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="75">
-        <v>90</v>
+        <v>174</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="L14" s="81"/>
+      <c r="M14" s="73">
+        <v>20</v>
       </c>
       <c r="N14" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O14" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="P14" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O14" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="59" t="s">
+      <c r="Q14" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -6055,38 +6270,38 @@
         <v>7</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>16</v>
+        <v>278</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="68"/>
+      <c r="G15" s="127"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="76">
-        <v>91</v>
+      <c r="I15" s="74">
+        <v>21</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="75">
-        <v>91</v>
+        <v>179</v>
+      </c>
+      <c r="L15" s="81"/>
+      <c r="M15" s="73">
+        <v>21</v>
       </c>
       <c r="N15" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O15" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="59" t="s">
+      <c r="Q15" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -6095,37 +6310,39 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="26"/>
+      <c r="C16" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="E16" s="26"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="68"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="76">
-        <v>92</v>
+      <c r="I16" s="74">
+        <v>22</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="75">
-        <v>14</v>
+        <v>180</v>
+      </c>
+      <c r="L16" s="81"/>
+      <c r="M16" s="73">
+        <v>20</v>
       </c>
       <c r="N16" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O16" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O16" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="59" t="s">
+      <c r="Q16" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -6134,37 +6351,39 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="26"/>
+      <c r="C17" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>263</v>
+      </c>
       <c r="E17" s="26"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="127"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="76">
-        <v>93</v>
+      <c r="I17" s="74">
+        <v>23</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="K17" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="75">
-        <v>93</v>
+        <v>217</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>254</v>
+      </c>
+      <c r="L17" s="81"/>
+      <c r="M17" s="73">
+        <v>23</v>
       </c>
       <c r="N17" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="O17" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -6173,1234 +6392,302 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="26"/>
+      <c r="C18" s="57" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="E18" s="26"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="68"/>
+      <c r="G18" s="127"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="76">
-        <v>94</v>
+      <c r="I18" s="74">
+        <v>24</v>
       </c>
       <c r="J18" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="81"/>
+      <c r="M18" s="75">
+        <v>22</v>
+      </c>
+      <c r="N18" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="77">
-        <v>92</v>
-      </c>
-      <c r="N18" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="O18" s="74" t="s">
+      <c r="O18" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="74" t="s">
+      <c r="P18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="74" t="s">
+      <c r="Q18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="76"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="C19" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>274</v>
+      </c>
       <c r="E19" s="26"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="68"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="76">
-        <v>95</v>
+      <c r="I19" s="74">
+        <v>25</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="K19" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="L19" s="86"/>
-      <c r="M19" s="88">
-        <v>14</v>
-      </c>
-      <c r="N19" s="106" t="s">
-        <v>222</v>
-      </c>
-      <c r="O19" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="84"/>
+      <c r="M19" s="86">
+        <v>4</v>
+      </c>
+      <c r="N19" s="104" t="s">
+        <v>220</v>
+      </c>
+      <c r="O19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="63" t="s">
+      <c r="P19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="63" t="s">
+      <c r="Q19" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="62"/>
+      <c r="R19" s="60"/>
     </row>
     <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="26"/>
+      <c r="C20" s="57" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>262</v>
+      </c>
       <c r="E20" s="26"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="68"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="37"/>
-      <c r="I20" s="105">
-        <v>96</v>
+      <c r="I20" s="103">
+        <v>26</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="82"/>
-      <c r="M20" s="84">
-        <v>94</v>
-      </c>
-      <c r="N20" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="O20" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="82">
+        <v>24</v>
+      </c>
+      <c r="N20" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="O20" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="100" t="s">
+      <c r="P20" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="100" t="s">
+      <c r="Q20" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="64"/>
+      <c r="R20" s="62"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="26"/>
+      <c r="C21" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>262</v>
+      </c>
       <c r="E21" s="26"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="127"/>
       <c r="H21" s="37"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="75">
-        <v>95</v>
-      </c>
-      <c r="N21" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O21" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="P21" s="99" t="s">
+      <c r="L21" s="81"/>
+      <c r="M21" s="73">
+        <v>25</v>
+      </c>
+      <c r="N21" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O21" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="P21" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="99" t="s">
+      <c r="Q21" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="70"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="42">
+      <c r="R21" s="68"/>
+    </row>
+    <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="128">
         <v>14</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="26">
-        <v>50</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="68"/>
+      <c r="C22" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="37"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="75">
-        <v>61</v>
-      </c>
-      <c r="N22" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O22" s="99" t="s">
+      <c r="L22" s="81"/>
+      <c r="M22" s="73">
+        <v>23</v>
+      </c>
+      <c r="N22" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="99" t="s">
+      <c r="P22" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="99" t="s">
+      <c r="Q22" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R22" s="70"/>
+      <c r="R22" s="68"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="42">
+      <c r="L23" s="81"/>
+      <c r="M23" s="73">
+        <v>22</v>
+      </c>
+      <c r="N23" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="68"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L24" s="81"/>
+      <c r="M24" s="73">
         <v>15</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="37"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="75">
-        <v>96</v>
-      </c>
-      <c r="N23" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O23" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="P23" s="99" t="s">
+      <c r="N24" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" s="97" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="68"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L25" s="81"/>
+      <c r="M25" s="74">
+        <v>17</v>
+      </c>
+      <c r="N25" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="68"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L26" s="81"/>
+      <c r="M26" s="74">
+        <v>18</v>
+      </c>
+      <c r="N26" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="97" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="68"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L27" s="81"/>
+      <c r="M27" s="73">
+        <v>19</v>
+      </c>
+      <c r="N27" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="70"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="25">
-        <v>16</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="26">
-        <v>15</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="37"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="75">
-        <v>85</v>
-      </c>
-      <c r="N24" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O24" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="70"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="25">
-        <v>17</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="37"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="76">
-        <v>87</v>
-      </c>
-      <c r="N25" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O25" s="99" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="99" t="s">
+      <c r="Q27" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="68"/>
+    </row>
+    <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="84"/>
+      <c r="M28" s="99">
+        <v>22</v>
+      </c>
+      <c r="N28" s="100" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" s="100" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="99" t="s">
+      <c r="Q28" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="70"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="25">
-        <v>18</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="37"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="76">
-        <v>88</v>
-      </c>
-      <c r="N26" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O26" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="99" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="70"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="25">
-        <v>19</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="37"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="75">
-        <v>89</v>
-      </c>
-      <c r="N27" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="O27" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="70"/>
-    </row>
-    <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25">
-        <v>20</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="37"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="101">
-        <v>92</v>
-      </c>
-      <c r="N28" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="O28" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="103"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="25">
-        <v>21</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="25">
-        <v>22</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="42">
-        <v>23</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="42">
-        <v>24</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="37"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="25">
-        <v>25</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="37"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="25">
-        <v>26</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="25">
-        <v>27</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="25">
-        <v>28</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="26">
-        <v>3</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="37"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="25">
-        <v>29</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="26">
-        <v>50</v>
-      </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="37"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="25">
-        <v>30</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="26">
-        <v>50</v>
-      </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="25">
-        <v>31</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="26">
-        <v>1</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="42">
-        <v>32</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
-        <v>33</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="37"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="25">
-        <v>34</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="37"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="25">
-        <v>35</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="37"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="25">
-        <v>36</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="37"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="25">
-        <v>37</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="37"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="25">
-        <v>38</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="37"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="25">
-        <v>39</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="37"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="25">
-        <v>40</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="42">
-        <v>41</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="37"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="42">
-        <v>42</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="37"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="25">
-        <v>43</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="37"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="25">
-        <v>44</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="37"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="25">
-        <v>45</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="25">
-        <v>46</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="37"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="25">
-        <v>47</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="37"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="25">
-        <v>48</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="37"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="25">
-        <v>49</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="42">
-        <v>50</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="42">
-        <v>51</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="37"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="25">
-        <v>52</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="37"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="25">
-        <v>53</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="37"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="25">
-        <v>54</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="37"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="25">
-        <v>55</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="37"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="25">
-        <v>56</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="37"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="25">
-        <v>57</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="37"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="25">
-        <v>58</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="37"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="42">
-        <v>59</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="37"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="42">
-        <v>60</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="37"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="25">
-        <v>61</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="26"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="37"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="25">
-        <v>62</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="37"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="25">
-        <v>63</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="37"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B72" s="25">
-        <v>64</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="37"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="25">
-        <v>65</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="37"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="25">
-        <v>66</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="25">
-        <v>67</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="37"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="42">
-        <v>68</v>
-      </c>
-      <c r="C76" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="37"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="42">
-        <v>69</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="37"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="25">
-        <v>70</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="37"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="25">
-        <v>71</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="68"/>
-      <c r="H79" s="37"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="25">
-        <v>72</v>
-      </c>
-      <c r="C80" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="37"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="25">
-        <v>73</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="37"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="25">
-        <v>74</v>
-      </c>
-      <c r="C82" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="37"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="25">
-        <v>75</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="37"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="25">
-        <v>76</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="37"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="42">
-        <v>77</v>
-      </c>
-      <c r="C85" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="68"/>
-      <c r="H85" s="37"/>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="42">
-        <v>78</v>
-      </c>
-      <c r="C86" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="37"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="25">
-        <v>79</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="37"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="25">
-        <v>80</v>
-      </c>
-      <c r="C88" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="37"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="25">
-        <v>81</v>
-      </c>
-      <c r="C89" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="37"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="25">
-        <v>82</v>
-      </c>
-      <c r="C90" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="37"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="25">
-        <v>83</v>
-      </c>
-      <c r="C91" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="37"/>
-    </row>
-    <row r="92" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="71">
-        <v>84</v>
-      </c>
-      <c r="C92" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="69"/>
-      <c r="H92" s="38"/>
+      <c r="R28" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_UBI_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_UBI_Leasing_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583"/>
+    <workbookView xWindow="1365" yWindow="15" windowWidth="19455" windowHeight="4470" tabRatio="583" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAS" sheetId="8" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="289">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1236,6 +1236,18 @@
   </si>
   <si>
     <t>I_SEGURO</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1576,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2044,19 +2056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2207,7 +2206,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2303,9 +2302,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2325,7 +2321,7 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2341,21 +2337,20 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="69" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="69" applyFont="1" applyBorder="1"/>
@@ -2366,6 +2361,19 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2423,19 +2431,8 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2914,7 +2911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2925,8 +2922,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D92"/>
+    <sheetView topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2963,26 +2960,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
       <c r="G3" s="10"/>
       <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
@@ -2995,11 +2992,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="7"/>
       <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
@@ -3012,11 +3009,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3028,29 +3025,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3108,39 +3105,39 @@
       <c r="C9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51">
+      <c r="G9" s="61"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="98">
         <v>85</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="L9" s="89"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="49">
         <v>85</v>
       </c>
-      <c r="N9" s="58" t="s">
+      <c r="N9" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="62"/>
+      <c r="R9" s="59"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
@@ -3149,38 +3146,38 @@
       <c r="C10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E10" s="36">
         <v>1</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="52">
+      <c r="G10" s="62"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="71">
         <v>86</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="L10" s="89"/>
-      <c r="M10" s="73">
+      <c r="L10" s="86"/>
+      <c r="M10" s="70">
         <v>94</v>
       </c>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O10" s="57" t="s">
+      <c r="O10" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="57" t="s">
+      <c r="P10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -3192,16 +3189,16 @@
       <c r="C11" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="54" t="s">
         <v>259</v>
       </c>
       <c r="E11" s="36">
         <v>15</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="52">
+      <c r="G11" s="62"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="71">
         <v>87</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -3210,20 +3207,20 @@
       <c r="K11" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="89"/>
-      <c r="M11" s="74">
+      <c r="L11" s="86"/>
+      <c r="M11" s="71">
         <v>87</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="O11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="57" t="s">
+      <c r="Q11" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -3235,14 +3232,14 @@
       <c r="C12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="52">
+      <c r="G12" s="62"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="71">
         <v>88</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -3251,20 +3248,20 @@
       <c r="K12" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="89"/>
-      <c r="M12" s="74">
+      <c r="L12" s="86"/>
+      <c r="M12" s="71">
         <v>88</v>
       </c>
-      <c r="N12" s="57" t="s">
+      <c r="N12" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -3276,36 +3273,36 @@
       <c r="C13" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="52">
+      <c r="G13" s="63"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="71">
         <v>89</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="73">
+      <c r="L13" s="87"/>
+      <c r="M13" s="70">
         <v>89</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="57" t="s">
+      <c r="Q13" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -3317,36 +3314,36 @@
       <c r="C14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="54" t="s">
         <v>260</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="52">
+      <c r="G14" s="63"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="71">
         <v>90</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="90"/>
-      <c r="M14" s="73">
+      <c r="L14" s="87"/>
+      <c r="M14" s="70">
         <v>90</v>
       </c>
-      <c r="N14" s="57" t="s">
+      <c r="N14" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="57" t="s">
+      <c r="Q14" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -3358,36 +3355,36 @@
       <c r="C15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="52">
+      <c r="G15" s="63"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="71">
         <v>91</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="63" t="s">
+      <c r="K15" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="L15" s="90"/>
-      <c r="M15" s="73">
+      <c r="L15" s="87"/>
+      <c r="M15" s="70">
         <v>92</v>
       </c>
-      <c r="N15" s="57" t="s">
+      <c r="N15" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -3399,14 +3396,14 @@
       <c r="C16" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="52">
+      <c r="G16" s="63"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="71">
         <v>92</v>
       </c>
       <c r="J16" s="30" t="s">
@@ -3415,20 +3412,20 @@
       <c r="K16" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="73">
+      <c r="L16" s="87"/>
+      <c r="M16" s="70">
         <v>96</v>
       </c>
-      <c r="N16" s="57" t="s">
+      <c r="N16" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="57" t="s">
+      <c r="Q16" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -3440,14 +3437,14 @@
       <c r="C17" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="52">
+      <c r="G17" s="63"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="71">
         <v>93</v>
       </c>
       <c r="J17" s="26" t="s">
@@ -3456,20 +3453,20 @@
       <c r="K17" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="73">
+      <c r="L17" s="87"/>
+      <c r="M17" s="70">
         <v>61</v>
       </c>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="O17" s="57" t="s">
+      <c r="O17" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="57" t="s">
+      <c r="Q17" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -3481,39 +3478,39 @@
       <c r="C18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>262</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="52">
+      <c r="G18" s="63"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="71">
         <v>94</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="60" t="s">
         <v>227</v>
       </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="75">
-        <v>93</v>
-      </c>
-      <c r="N18" s="72" t="s">
+      <c r="L18" s="87"/>
+      <c r="M18" s="72">
+        <v>120</v>
+      </c>
+      <c r="N18" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="72" t="s">
+      <c r="P18" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="76"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
@@ -3522,39 +3519,39 @@
       <c r="C19" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="52">
+      <c r="G19" s="63"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="71">
         <v>95</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="L19" s="91"/>
-      <c r="M19" s="86">
+      <c r="L19" s="88"/>
+      <c r="M19" s="83">
         <v>14</v>
       </c>
-      <c r="N19" s="61" t="s">
+      <c r="N19" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="O19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="P19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="61" t="s">
+      <c r="Q19" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="60"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
@@ -3563,36 +3560,36 @@
       <c r="C20" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="52">
+      <c r="G20" s="63"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="71">
         <v>96</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="63" t="s">
+      <c r="K20" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="82">
+      <c r="L20" s="89"/>
+      <c r="M20" s="79">
         <v>86</v>
       </c>
-      <c r="N20" s="58" t="s">
+      <c r="N20" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="58" t="s">
+      <c r="Q20" s="55" t="s">
         <v>17</v>
       </c>
       <c r="R20" s="47"/>
@@ -3604,36 +3601,36 @@
       <c r="C21" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="52">
+      <c r="G21" s="63"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="71">
         <v>97</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="K21" s="63" t="s">
+      <c r="K21" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="L21" s="93"/>
+      <c r="L21" s="90"/>
       <c r="M21" s="50">
         <v>95</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O21" s="57" t="s">
+      <c r="O21" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="57" t="s">
+      <c r="Q21" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R21" s="35"/>
@@ -3645,16 +3642,16 @@
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E22" s="26">
         <v>50</v>
       </c>
       <c r="F22" s="43"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="52">
+      <c r="G22" s="63"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="71">
         <v>98</v>
       </c>
       <c r="J22" s="26" t="s">
@@ -3663,20 +3660,20 @@
       <c r="K22" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="L22" s="93"/>
-      <c r="M22" s="74">
+      <c r="L22" s="90"/>
+      <c r="M22" s="71">
         <v>87</v>
       </c>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="57" t="s">
+      <c r="P22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q22" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R22" s="35"/>
@@ -3688,36 +3685,36 @@
       <c r="C23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="52">
+      <c r="G23" s="63"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="71">
         <v>99</v>
       </c>
       <c r="J23" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="K23" s="63" t="s">
+      <c r="K23" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="L23" s="93"/>
-      <c r="M23" s="74">
+      <c r="L23" s="90"/>
+      <c r="M23" s="71">
         <v>88</v>
       </c>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O23" s="57" t="s">
+      <c r="O23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="57" t="s">
+      <c r="P23" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R23" s="35"/>
@@ -3729,38 +3726,38 @@
       <c r="C24" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E24" s="26">
         <v>15</v>
       </c>
       <c r="F24" s="43"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="52">
+      <c r="G24" s="63"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="71">
         <v>100</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="K24" s="63" t="s">
+      <c r="K24" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="L24" s="93"/>
+      <c r="L24" s="90"/>
       <c r="M24" s="50">
         <v>89</v>
       </c>
-      <c r="N24" s="57" t="s">
+      <c r="N24" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O24" s="57" t="s">
+      <c r="O24" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="P24" s="57" t="s">
+      <c r="P24" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R24" s="35"/>
@@ -3772,36 +3769,36 @@
       <c r="C25" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="54" t="s">
         <v>265</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="43"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="52">
+      <c r="G25" s="63"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="71">
         <v>101</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="63" t="s">
+      <c r="K25" s="60" t="s">
         <v>233</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="90"/>
       <c r="M25" s="50">
         <v>91</v>
       </c>
-      <c r="N25" s="57" t="s">
+      <c r="N25" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O25" s="54" t="s">
+      <c r="O25" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="P25" s="57" t="s">
+      <c r="P25" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q25" s="57" t="s">
+      <c r="Q25" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R25" s="35"/>
@@ -3813,14 +3810,14 @@
       <c r="C26" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="54" t="s">
         <v>265</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="43"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="52">
+      <c r="G26" s="63"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="71">
         <v>102</v>
       </c>
       <c r="J26" s="30" t="s">
@@ -3829,20 +3826,20 @@
       <c r="K26" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="L26" s="93"/>
+      <c r="L26" s="90"/>
       <c r="M26" s="50">
         <v>92</v>
       </c>
-      <c r="N26" s="57" t="s">
+      <c r="N26" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O26" s="57" t="s">
+      <c r="O26" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="P26" s="57" t="s">
+      <c r="P26" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="Q26" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R26" s="35"/>
@@ -3854,36 +3851,36 @@
       <c r="C27" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="43"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="52">
+      <c r="G27" s="63"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="71">
         <v>103</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="L27" s="93"/>
+      <c r="L27" s="90"/>
       <c r="M27" s="50">
         <v>97</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O27" s="57" t="s">
+      <c r="O27" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="P27" s="57" t="s">
+      <c r="P27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q27" s="57" t="s">
+      <c r="Q27" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R27" s="35"/>
@@ -3895,36 +3892,36 @@
       <c r="C28" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="43"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="52">
+      <c r="G28" s="63"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="71">
         <v>104</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="63" t="s">
+      <c r="K28" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="L28" s="93"/>
+      <c r="L28" s="90"/>
       <c r="M28" s="50">
         <v>61</v>
       </c>
-      <c r="N28" s="57" t="s">
+      <c r="N28" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="O28" s="57" t="s">
+      <c r="O28" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P28" s="57" t="s">
+      <c r="P28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="57" t="s">
+      <c r="Q28" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R28" s="35"/>
@@ -3936,39 +3933,39 @@
       <c r="C29" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="43"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="52">
+      <c r="G29" s="63"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="71">
         <v>105</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="J29" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="63" t="s">
+      <c r="K29" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="L29" s="93"/>
-      <c r="M29" s="87">
-        <v>93</v>
-      </c>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="90"/>
+      <c r="M29" s="84">
+        <v>120</v>
+      </c>
+      <c r="N29" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="O29" s="72" t="s">
+      <c r="O29" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P29" s="72" t="s">
+      <c r="P29" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="72" t="s">
+      <c r="Q29" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R29" s="76"/>
+      <c r="R29" s="73"/>
     </row>
     <row r="30" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25">
@@ -3977,39 +3974,39 @@
       <c r="C30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="43"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="52">
+      <c r="G30" s="63"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="71">
         <v>106</v>
       </c>
-      <c r="J30" s="57" t="s">
+      <c r="J30" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="K30" s="63" t="s">
+      <c r="K30" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="L30" s="94"/>
-      <c r="M30" s="85">
+      <c r="L30" s="91"/>
+      <c r="M30" s="82">
         <v>15</v>
       </c>
-      <c r="N30" s="61" t="s">
+      <c r="N30" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="O30" s="61" t="s">
+      <c r="O30" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="61" t="s">
+      <c r="P30" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="Q30" s="61" t="s">
+      <c r="Q30" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R30" s="60"/>
+      <c r="R30" s="57"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="42">
@@ -4018,39 +4015,39 @@
       <c r="C31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="43"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="52">
+      <c r="G31" s="63"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="71">
         <v>107</v>
       </c>
-      <c r="J31" s="54" t="s">
+      <c r="J31" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="K31" s="63" t="s">
+      <c r="K31" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="L31" s="92"/>
+      <c r="L31" s="89"/>
       <c r="M31" s="49">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N31" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="O31" s="58" t="s">
+      <c r="O31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="P31" s="58" t="s">
+      <c r="P31" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="58" t="s">
+      <c r="Q31" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R31" s="62"/>
+      <c r="R31" s="59"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="42">
@@ -4059,39 +4056,39 @@
       <c r="C32" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="52">
+      <c r="G32" s="63"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="71">
         <v>108</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="L32" s="93"/>
+      <c r="L32" s="90"/>
       <c r="M32" s="50">
         <v>98</v>
       </c>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O32" s="57" t="s">
+      <c r="O32" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="P32" s="57" t="s">
+      <c r="P32" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="57" t="s">
+      <c r="Q32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R32" s="68"/>
+      <c r="R32" s="65"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
@@ -4100,39 +4097,39 @@
       <c r="C33" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="43"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="52">
+      <c r="G33" s="63"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="71">
         <v>109</v>
       </c>
-      <c r="J33" s="54" t="s">
+      <c r="J33" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="L33" s="93"/>
+      <c r="L33" s="90"/>
       <c r="M33" s="50">
         <v>85</v>
       </c>
-      <c r="N33" s="57" t="s">
+      <c r="N33" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O33" s="57" t="s">
+      <c r="O33" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="P33" s="57" t="s">
+      <c r="P33" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="57" t="s">
+      <c r="Q33" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="68"/>
+      <c r="R33" s="65"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B34" s="25">
@@ -4141,36 +4138,36 @@
       <c r="C34" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="43"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="52">
+      <c r="G34" s="63"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="71">
         <v>110</v>
       </c>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="63" t="s">
+      <c r="K34" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="L34" s="93"/>
+      <c r="L34" s="90"/>
       <c r="M34" s="50">
         <v>99</v>
       </c>
-      <c r="N34" s="57" t="s">
+      <c r="N34" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O34" s="57" t="s">
+      <c r="O34" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="P34" s="57" t="s">
+      <c r="P34" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="57" t="s">
+      <c r="Q34" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R34" s="35"/>
@@ -4182,36 +4179,36 @@
       <c r="C35" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="54" t="s">
         <v>266</v>
       </c>
       <c r="E35" s="26"/>
       <c r="F35" s="43"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="52">
+      <c r="G35" s="63"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="71">
         <v>111</v>
       </c>
-      <c r="J35" s="54" t="s">
+      <c r="J35" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="K35" s="63" t="s">
+      <c r="K35" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="L35" s="93"/>
+      <c r="L35" s="90"/>
       <c r="M35" s="50">
         <v>100</v>
       </c>
-      <c r="N35" s="57" t="s">
+      <c r="N35" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O35" s="54" t="s">
+      <c r="O35" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="P35" s="54" t="s">
+      <c r="P35" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="54" t="s">
+      <c r="Q35" s="51" t="s">
         <v>17</v>
       </c>
       <c r="R35" s="35"/>
@@ -4223,38 +4220,38 @@
       <c r="C36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E36" s="26">
         <v>3</v>
       </c>
       <c r="F36" s="43"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="52">
+      <c r="G36" s="63"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="71">
         <v>112</v>
       </c>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="K36" s="63" t="s">
+      <c r="K36" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="L36" s="93"/>
-      <c r="M36" s="74">
+      <c r="L36" s="90"/>
+      <c r="M36" s="71">
         <v>87</v>
       </c>
-      <c r="N36" s="57" t="s">
+      <c r="N36" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O36" s="57" t="s">
+      <c r="O36" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P36" s="57" t="s">
+      <c r="P36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="57" t="s">
+      <c r="Q36" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R36" s="35"/>
@@ -4266,38 +4263,38 @@
       <c r="C37" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E37" s="26">
         <v>50</v>
       </c>
       <c r="F37" s="43"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="52">
+      <c r="G37" s="63"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="71">
         <v>113</v>
       </c>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K37" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="L37" s="93"/>
-      <c r="M37" s="74">
+      <c r="L37" s="90"/>
+      <c r="M37" s="71">
         <v>88</v>
       </c>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O37" s="57" t="s">
+      <c r="O37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R37" s="35"/>
@@ -4309,38 +4306,38 @@
       <c r="C38" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E38" s="26">
         <v>50</v>
       </c>
       <c r="F38" s="43"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="52">
+      <c r="G38" s="63"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="71">
         <v>114</v>
       </c>
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="K38" s="63" t="s">
+      <c r="K38" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="L38" s="93"/>
+      <c r="L38" s="90"/>
       <c r="M38" s="50">
         <v>89</v>
       </c>
-      <c r="N38" s="57" t="s">
+      <c r="N38" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="O38" s="57" t="s">
+      <c r="O38" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="57" t="s">
+      <c r="P38" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q38" s="57" t="s">
+      <c r="Q38" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R38" s="35"/>
@@ -4352,41 +4349,41 @@
       <c r="C39" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="D39" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E39" s="26">
         <v>1</v>
       </c>
       <c r="F39" s="43"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="52">
+      <c r="G39" s="63"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="71">
         <v>115</v>
       </c>
-      <c r="J39" s="57" t="s">
+      <c r="J39" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="K39" s="63" t="s">
+      <c r="K39" s="60" t="s">
         <v>246</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="88">
-        <v>93</v>
-      </c>
-      <c r="N39" s="78" t="s">
+      <c r="L39" s="90"/>
+      <c r="M39" s="85">
+        <v>120</v>
+      </c>
+      <c r="N39" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="O39" s="78" t="s">
+      <c r="O39" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="P39" s="78" t="s">
+      <c r="P39" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="78" t="s">
+      <c r="Q39" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="79"/>
+      <c r="R39" s="76"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="42">
@@ -4395,36 +4392,36 @@
       <c r="C40" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="43"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="52">
+      <c r="G40" s="63"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="71">
         <v>116</v>
       </c>
-      <c r="J40" s="57" t="s">
+      <c r="J40" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="K40" s="63" t="s">
+      <c r="K40" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="L40" s="92"/>
+      <c r="L40" s="89"/>
       <c r="M40" s="49">
-        <v>87</v>
-      </c>
-      <c r="N40" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="N40" s="55" t="s">
         <v>212</v>
       </c>
-      <c r="O40" s="58" t="s">
+      <c r="O40" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="58" t="s">
+      <c r="P40" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="58" t="s">
+      <c r="Q40" s="55" t="s">
         <v>17</v>
       </c>
       <c r="R40" s="47"/>
@@ -4436,77 +4433,77 @@
       <c r="C41" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="43"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="52">
+      <c r="G41" s="63"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="71">
         <v>117</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="K41" s="63" t="s">
+      <c r="K41" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="L41" s="93"/>
-      <c r="M41" s="74">
+      <c r="L41" s="90"/>
+      <c r="M41" s="71">
         <v>98</v>
       </c>
-      <c r="N41" s="57" t="s">
+      <c r="N41" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O41" s="57" t="s">
+      <c r="O41" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="P41" s="57" t="s">
+      <c r="P41" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q41" s="57" t="s">
+      <c r="Q41" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R41" s="33"/>
     </row>
-    <row r="42" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B42" s="25">
         <v>34</v>
       </c>
       <c r="C42" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="D42" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="43"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="53">
+      <c r="G42" s="63"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="71">
         <v>118</v>
       </c>
-      <c r="J42" s="59" t="s">
+      <c r="J42" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="L42" s="93"/>
-      <c r="M42" s="74">
+      <c r="L42" s="90"/>
+      <c r="M42" s="71">
         <v>86</v>
       </c>
-      <c r="N42" s="57" t="s">
+      <c r="N42" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O42" s="57" t="s">
+      <c r="O42" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="P42" s="57" t="s">
+      <c r="P42" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="57" t="s">
+      <c r="Q42" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R42" s="33"/>
@@ -4518,59 +4515,77 @@
       <c r="C43" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="54" t="s">
         <v>262</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="43"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="37"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="74">
+      <c r="G43" s="63"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="71">
+        <v>119</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L43" s="90"/>
+      <c r="M43" s="71">
         <v>99</v>
       </c>
-      <c r="N43" s="57" t="s">
+      <c r="N43" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O43" s="57" t="s">
+      <c r="O43" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="P43" s="57" t="s">
+      <c r="P43" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="57" t="s">
+      <c r="Q43" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R43" s="33"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <v>36</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="43"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="37"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="74">
+      <c r="G44" s="63"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="99">
+        <v>120</v>
+      </c>
+      <c r="J44" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="71">
         <v>101</v>
       </c>
-      <c r="N44" s="57" t="s">
+      <c r="N44" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O44" s="54" t="s">
+      <c r="O44" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="P44" s="54" t="s">
+      <c r="P44" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="54" t="s">
+      <c r="Q44" s="51" t="s">
         <v>17</v>
       </c>
       <c r="R44" s="33"/>
@@ -4582,27 +4597,27 @@
       <c r="C45" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="43"/>
-      <c r="G45" s="66"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="37"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="74">
+      <c r="L45" s="78"/>
+      <c r="M45" s="71">
         <v>87</v>
       </c>
-      <c r="N45" s="57" t="s">
+      <c r="N45" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O45" s="57" t="s">
+      <c r="O45" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P45" s="57" t="s">
+      <c r="P45" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q45" s="57" t="s">
+      <c r="Q45" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R45" s="33"/>
@@ -4614,27 +4629,27 @@
       <c r="C46" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="66"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="37"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="74">
+      <c r="L46" s="78"/>
+      <c r="M46" s="71">
         <v>88</v>
       </c>
-      <c r="N46" s="57" t="s">
+      <c r="N46" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O46" s="57" t="s">
+      <c r="O46" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P46" s="57" t="s">
+      <c r="P46" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="57" t="s">
+      <c r="Q46" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R46" s="33"/>
@@ -4646,27 +4661,27 @@
       <c r="C47" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="66"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="37"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="74">
+      <c r="L47" s="78"/>
+      <c r="M47" s="71">
         <v>89</v>
       </c>
-      <c r="N47" s="57" t="s">
+      <c r="N47" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="O47" s="57" t="s">
+      <c r="O47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="P47" s="57" t="s">
+      <c r="P47" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q47" s="57" t="s">
+      <c r="Q47" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R47" s="33"/>
@@ -4678,30 +4693,30 @@
       <c r="C48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="66"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="37"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="88">
-        <v>93</v>
-      </c>
-      <c r="N48" s="78" t="s">
+      <c r="L48" s="81"/>
+      <c r="M48" s="85">
+        <v>120</v>
+      </c>
+      <c r="N48" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="O48" s="78" t="s">
+      <c r="O48" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="P48" s="78" t="s">
+      <c r="P48" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="Q48" s="78" t="s">
+      <c r="Q48" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="R48" s="79"/>
+      <c r="R48" s="76"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="42">
@@ -4710,27 +4725,27 @@
       <c r="C49" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="66"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="37"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="82">
+      <c r="L49" s="77"/>
+      <c r="M49" s="79">
         <v>85</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="O49" s="58" t="s">
+      <c r="O49" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P49" s="58" t="s">
+      <c r="P49" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="58" t="s">
+      <c r="Q49" s="55" t="s">
         <v>17</v>
       </c>
       <c r="R49" s="47"/>
@@ -4742,27 +4757,27 @@
       <c r="C50" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="66"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="37"/>
-      <c r="L50" s="81"/>
+      <c r="L50" s="78"/>
       <c r="M50" s="50">
         <v>92</v>
       </c>
-      <c r="N50" s="57" t="s">
+      <c r="N50" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O50" s="57" t="s">
+      <c r="O50" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="P50" s="57" t="s">
+      <c r="P50" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q50" s="57" t="s">
+      <c r="Q50" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R50" s="35"/>
@@ -4774,27 +4789,27 @@
       <c r="C51" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="D51" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="66"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="37"/>
-      <c r="L51" s="81"/>
+      <c r="L51" s="78"/>
       <c r="M51" s="50">
         <v>92</v>
       </c>
-      <c r="N51" s="57" t="s">
+      <c r="N51" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O51" s="57" t="s">
+      <c r="O51" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="P51" s="57" t="s">
+      <c r="P51" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q51" s="57" t="s">
+      <c r="Q51" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R51" s="35"/>
@@ -4806,27 +4821,27 @@
       <c r="C52" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="66"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="37"/>
-      <c r="L52" s="81"/>
+      <c r="L52" s="78"/>
       <c r="M52" s="50">
         <v>92</v>
       </c>
-      <c r="N52" s="57" t="s">
+      <c r="N52" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O52" s="57" t="s">
+      <c r="O52" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="P52" s="57" t="s">
+      <c r="P52" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="57" t="s">
+      <c r="Q52" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="35"/>
@@ -4838,30 +4853,30 @@
       <c r="C53" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="66"/>
+      <c r="G53" s="63"/>
       <c r="H53" s="37"/>
-      <c r="L53" s="81"/>
+      <c r="L53" s="78"/>
       <c r="M53" s="50">
         <v>92</v>
       </c>
-      <c r="N53" s="57" t="s">
+      <c r="N53" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O53" s="57" t="s">
+      <c r="O53" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="P53" s="57" t="s">
+      <c r="P53" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q53" s="57" t="s">
+      <c r="Q53" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="68"/>
+      <c r="R53" s="65"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="25">
@@ -4870,30 +4885,30 @@
       <c r="C54" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="43"/>
-      <c r="G54" s="66"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="37"/>
-      <c r="L54" s="81"/>
+      <c r="L54" s="78"/>
       <c r="M54" s="50">
         <v>102</v>
       </c>
-      <c r="N54" s="57" t="s">
+      <c r="N54" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O54" s="54" t="s">
+      <c r="O54" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="P54" s="54" t="s">
+      <c r="P54" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="Q54" s="57" t="s">
+      <c r="Q54" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R54" s="68"/>
+      <c r="R54" s="65"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="25">
@@ -4902,27 +4917,27 @@
       <c r="C55" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="D55" s="54" t="s">
         <v>269</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="43"/>
-      <c r="G55" s="66"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="37"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="74">
+      <c r="L55" s="78"/>
+      <c r="M55" s="71">
         <v>103</v>
       </c>
-      <c r="N55" s="57" t="s">
+      <c r="N55" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O55" s="57" t="s">
+      <c r="O55" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="P55" s="57" t="s">
+      <c r="P55" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q55" s="57" t="s">
+      <c r="Q55" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R55" s="35"/>
@@ -4934,27 +4949,27 @@
       <c r="C56" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="43"/>
-      <c r="G56" s="66"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="37"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="74">
+      <c r="L56" s="78"/>
+      <c r="M56" s="71">
         <v>104</v>
       </c>
-      <c r="N56" s="57" t="s">
+      <c r="N56" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O56" s="57" t="s">
+      <c r="O56" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="P56" s="57" t="s">
+      <c r="P56" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q56" s="57" t="s">
+      <c r="Q56" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R56" s="35"/>
@@ -4966,27 +4981,27 @@
       <c r="C57" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="D57" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E57" s="26"/>
       <c r="F57" s="43"/>
-      <c r="G57" s="66"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="37"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="74">
+      <c r="L57" s="78"/>
+      <c r="M57" s="71">
         <v>105</v>
       </c>
-      <c r="N57" s="57" t="s">
+      <c r="N57" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O57" s="57" t="s">
+      <c r="O57" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="P57" s="57" t="s">
+      <c r="P57" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="57" t="s">
+      <c r="Q57" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R57" s="35"/>
@@ -4998,27 +5013,27 @@
       <c r="C58" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="D58" s="54" t="s">
         <v>270</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="43"/>
-      <c r="G58" s="66"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="37"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="74">
+      <c r="L58" s="78"/>
+      <c r="M58" s="71">
         <v>106</v>
       </c>
-      <c r="N58" s="57" t="s">
+      <c r="N58" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O58" s="57" t="s">
+      <c r="O58" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="P58" s="57" t="s">
+      <c r="P58" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="Q58" s="57" t="s">
+      <c r="Q58" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R58" s="35"/>
@@ -5030,27 +5045,27 @@
       <c r="C59" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="D59" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E59" s="26"/>
       <c r="F59" s="43"/>
-      <c r="G59" s="66"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="37"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="74">
+      <c r="L59" s="78"/>
+      <c r="M59" s="71">
         <v>107</v>
       </c>
-      <c r="N59" s="57" t="s">
+      <c r="N59" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O59" s="54" t="s">
+      <c r="O59" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="P59" s="57" t="s">
+      <c r="P59" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q59" s="57" t="s">
+      <c r="Q59" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R59" s="35"/>
@@ -5062,27 +5077,27 @@
       <c r="C60" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="D60" s="54" t="s">
         <v>266</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="43"/>
-      <c r="G60" s="66"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="37"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="74">
+      <c r="L60" s="78"/>
+      <c r="M60" s="71">
         <v>108</v>
       </c>
-      <c r="N60" s="57" t="s">
+      <c r="N60" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O60" s="54" t="s">
+      <c r="O60" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="P60" s="57" t="s">
+      <c r="P60" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Q60" s="57" t="s">
+      <c r="Q60" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R60" s="35"/>
@@ -5094,27 +5109,27 @@
       <c r="C61" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="43"/>
-      <c r="G61" s="66"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="37"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="74">
+      <c r="L61" s="78"/>
+      <c r="M61" s="71">
         <v>109</v>
       </c>
-      <c r="N61" s="57" t="s">
+      <c r="N61" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O61" s="54" t="s">
+      <c r="O61" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="P61" s="57" t="s">
+      <c r="P61" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q61" s="57" t="s">
+      <c r="Q61" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R61" s="35"/>
@@ -5126,27 +5141,27 @@
       <c r="C62" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="D62" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="43"/>
-      <c r="G62" s="66"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="37"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="74">
+      <c r="L62" s="78"/>
+      <c r="M62" s="71">
         <v>110</v>
       </c>
-      <c r="N62" s="57" t="s">
+      <c r="N62" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O62" s="54" t="s">
+      <c r="O62" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="P62" s="57" t="s">
+      <c r="P62" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q62" s="57" t="s">
+      <c r="Q62" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R62" s="35"/>
@@ -5158,27 +5173,27 @@
       <c r="C63" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="D63" s="54" t="s">
         <v>271</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="43"/>
-      <c r="G63" s="66"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="37"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="74">
+      <c r="L63" s="78"/>
+      <c r="M63" s="71">
         <v>111</v>
       </c>
-      <c r="N63" s="57" t="s">
+      <c r="N63" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O63" s="54" t="s">
+      <c r="O63" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="P63" s="54" t="s">
+      <c r="P63" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Q63" s="57" t="s">
+      <c r="Q63" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R63" s="35"/>
@@ -5190,30 +5205,30 @@
       <c r="C64" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="D64" s="54" t="s">
         <v>259</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="43"/>
-      <c r="G64" s="66"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="37"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="74">
+      <c r="L64" s="78"/>
+      <c r="M64" s="71">
         <v>112</v>
       </c>
-      <c r="N64" s="57" t="s">
+      <c r="N64" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O64" s="57" t="s">
+      <c r="O64" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="P64" s="57" t="s">
+      <c r="P64" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Q64" s="57" t="s">
+      <c r="Q64" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="68"/>
+      <c r="R64" s="65"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="25">
@@ -5222,30 +5237,30 @@
       <c r="C65" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="54" t="s">
         <v>266</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="66"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="37"/>
-      <c r="L65" s="81"/>
-      <c r="M65" s="74">
+      <c r="L65" s="78"/>
+      <c r="M65" s="71">
         <v>113</v>
       </c>
-      <c r="N65" s="57" t="s">
+      <c r="N65" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O65" s="54" t="s">
+      <c r="O65" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="P65" s="54" t="s">
+      <c r="P65" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Q65" s="57" t="s">
+      <c r="Q65" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="68"/>
+      <c r="R65" s="65"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="25">
@@ -5254,27 +5269,27 @@
       <c r="C66" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="43"/>
-      <c r="G66" s="66"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="37"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="74">
+      <c r="L66" s="78"/>
+      <c r="M66" s="71">
         <v>114</v>
       </c>
-      <c r="N66" s="57" t="s">
+      <c r="N66" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O66" s="57" t="s">
+      <c r="O66" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="P66" s="57" t="s">
+      <c r="P66" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q66" s="57" t="s">
+      <c r="Q66" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R66" s="35"/>
@@ -5286,27 +5301,27 @@
       <c r="C67" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D67" s="57" t="s">
+      <c r="D67" s="54" t="s">
         <v>258</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="43"/>
-      <c r="G67" s="66"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="37"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="74">
+      <c r="L67" s="78"/>
+      <c r="M67" s="71">
         <v>115</v>
       </c>
-      <c r="N67" s="57" t="s">
+      <c r="N67" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O67" s="57" t="s">
+      <c r="O67" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="P67" s="57" t="s">
+      <c r="P67" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="Q67" s="57" t="s">
+      <c r="Q67" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R67" s="35"/>
@@ -5318,27 +5333,27 @@
       <c r="C68" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D68" s="57" t="s">
+      <c r="D68" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="43"/>
-      <c r="G68" s="66"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="37"/>
-      <c r="L68" s="81"/>
+      <c r="L68" s="78"/>
       <c r="M68" s="50">
         <v>92</v>
       </c>
-      <c r="N68" s="57" t="s">
+      <c r="N68" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="O68" s="57" t="s">
+      <c r="O68" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="P68" s="57" t="s">
+      <c r="P68" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q68" s="57" t="s">
+      <c r="Q68" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R68" s="35"/>
@@ -5350,30 +5365,30 @@
       <c r="C69" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="57" t="s">
+      <c r="D69" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="43"/>
-      <c r="G69" s="66"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="37"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="70">
+      <c r="L69" s="78"/>
+      <c r="M69" s="67">
         <v>14</v>
       </c>
-      <c r="N69" s="59" t="s">
+      <c r="N69" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="O69" s="83" t="s">
+      <c r="O69" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="P69" s="83" t="s">
+      <c r="P69" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="Q69" s="59" t="s">
+      <c r="Q69" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="R69" s="77"/>
+      <c r="R69" s="74"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="25">
@@ -5382,27 +5397,27 @@
       <c r="C70" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="57" t="s">
+      <c r="D70" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="43"/>
-      <c r="G70" s="66"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="37"/>
-      <c r="L70" s="80"/>
+      <c r="L70" s="77"/>
       <c r="M70" s="49">
         <v>86</v>
       </c>
       <c r="N70" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="O70" s="58" t="s">
+      <c r="O70" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P70" s="58" t="s">
+      <c r="P70" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q70" s="58" t="s">
+      <c r="Q70" s="55" t="s">
         <v>17</v>
       </c>
       <c r="R70" s="47"/>
@@ -5414,27 +5429,27 @@
       <c r="C71" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="D71" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="43"/>
-      <c r="G71" s="66"/>
+      <c r="G71" s="63"/>
       <c r="H71" s="37"/>
-      <c r="L71" s="81"/>
+      <c r="L71" s="78"/>
       <c r="M71" s="50">
         <v>98</v>
       </c>
-      <c r="N71" s="57" t="s">
+      <c r="N71" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O71" s="57" t="s">
+      <c r="O71" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="P71" s="57" t="s">
+      <c r="P71" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="Q71" s="57" t="s">
+      <c r="Q71" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R71" s="35"/>
@@ -5446,27 +5461,27 @@
       <c r="C72" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D72" s="54" t="s">
         <v>260</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="43"/>
-      <c r="G72" s="66"/>
+      <c r="G72" s="63"/>
       <c r="H72" s="37"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="74">
+      <c r="L72" s="78"/>
+      <c r="M72" s="71">
         <v>116</v>
       </c>
-      <c r="N72" s="57" t="s">
+      <c r="N72" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O72" s="57" t="s">
+      <c r="O72" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="P72" s="57" t="s">
+      <c r="P72" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="Q72" s="57" t="s">
+      <c r="Q72" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R72" s="35"/>
@@ -5478,27 +5493,27 @@
       <c r="C73" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="D73" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="43"/>
-      <c r="G73" s="66"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="37"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="74">
+      <c r="L73" s="78"/>
+      <c r="M73" s="71">
         <v>117</v>
       </c>
-      <c r="N73" s="57" t="s">
+      <c r="N73" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O73" s="57" t="s">
+      <c r="O73" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="P73" s="57" t="s">
+      <c r="P73" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="Q73" s="57" t="s">
+      <c r="Q73" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R73" s="35"/>
@@ -5510,27 +5525,27 @@
       <c r="C74" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="43"/>
-      <c r="G74" s="66"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="37"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="74">
+      <c r="L74" s="78"/>
+      <c r="M74" s="71">
         <v>118</v>
       </c>
-      <c r="N74" s="57" t="s">
+      <c r="N74" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="O74" s="57" t="s">
+      <c r="O74" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="P74" s="57" t="s">
+      <c r="P74" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q74" s="57" t="s">
+      <c r="Q74" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R74" s="35"/>
@@ -5542,30 +5557,30 @@
       <c r="C75" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="D75" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="43"/>
-      <c r="G75" s="66"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="37"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="70">
+      <c r="L75" s="81"/>
+      <c r="M75" s="67">
         <v>93</v>
       </c>
-      <c r="N75" s="59" t="s">
+      <c r="N75" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="O75" s="59" t="s">
+      <c r="O75" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="P75" s="59" t="s">
+      <c r="P75" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="Q75" s="59" t="s">
+      <c r="Q75" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="R75" s="71"/>
+      <c r="R75" s="68"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="42">
@@ -5574,12 +5589,12 @@
       <c r="C76" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="D76" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="43"/>
-      <c r="G76" s="66"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="37"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
@@ -5589,12 +5604,12 @@
       <c r="C77" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="57" t="s">
+      <c r="D77" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="43"/>
-      <c r="G77" s="66"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="37"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
@@ -5604,12 +5619,12 @@
       <c r="C78" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D78" s="57" t="s">
+      <c r="D78" s="54" t="s">
         <v>268</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="66"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="37"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
@@ -5619,12 +5634,12 @@
       <c r="C79" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E79" s="26"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="66"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="37"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
@@ -5634,12 +5649,12 @@
       <c r="C80" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="D80" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="66"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="37"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
@@ -5649,12 +5664,12 @@
       <c r="C81" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D81" s="57" t="s">
+      <c r="D81" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="66"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="37"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
@@ -5664,12 +5679,12 @@
       <c r="C82" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="57" t="s">
+      <c r="D82" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="66"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="37"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
@@ -5679,12 +5694,12 @@
       <c r="C83" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D83" s="57" t="s">
+      <c r="D83" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="43"/>
-      <c r="G83" s="66"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="37"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
@@ -5694,12 +5709,12 @@
       <c r="C84" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D84" s="57" t="s">
+      <c r="D84" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="43"/>
-      <c r="G84" s="66"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="37"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
@@ -5709,12 +5724,12 @@
       <c r="C85" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="57" t="s">
+      <c r="D85" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="43"/>
-      <c r="G85" s="66"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="37"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
@@ -5724,12 +5739,12 @@
       <c r="C86" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="57" t="s">
+      <c r="D86" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="43"/>
-      <c r="G86" s="66"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="37"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
@@ -5739,12 +5754,12 @@
       <c r="C87" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D87" s="57" t="s">
+      <c r="D87" s="54" t="s">
         <v>272</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="43"/>
-      <c r="G87" s="66"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="37"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
@@ -5754,12 +5769,12 @@
       <c r="C88" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="57" t="s">
+      <c r="D88" s="54" t="s">
         <v>262</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="43"/>
-      <c r="G88" s="66"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="37"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
@@ -5769,12 +5784,12 @@
       <c r="C89" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="57" t="s">
+      <c r="D89" s="54" t="s">
         <v>272</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="43"/>
-      <c r="G89" s="66"/>
+      <c r="G89" s="63"/>
       <c r="H89" s="37"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
@@ -5784,12 +5799,12 @@
       <c r="C90" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="57" t="s">
+      <c r="D90" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="43"/>
-      <c r="G90" s="66"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="37"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
@@ -5799,27 +5814,27 @@
       <c r="C91" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="57" t="s">
+      <c r="D91" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E91" s="26"/>
       <c r="F91" s="43"/>
-      <c r="G91" s="66"/>
+      <c r="G91" s="63"/>
       <c r="H91" s="37"/>
     </row>
     <row r="92" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="69">
+      <c r="B92" s="66">
         <v>84</v>
       </c>
       <c r="C92" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="54" t="s">
         <v>264</v>
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="44"/>
-      <c r="G92" s="67"/>
+      <c r="G92" s="64"/>
       <c r="H92" s="38"/>
     </row>
   </sheetData>
@@ -5843,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5881,26 +5896,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="122"/>
       <c r="G3" s="10"/>
       <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
@@ -5913,11 +5928,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="7"/>
       <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
@@ -5930,11 +5945,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5946,29 +5961,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="106" t="s">
+      <c r="M7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6023,80 +6038,80 @@
       <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="55" t="s">
         <v>257</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="40"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="102">
+      <c r="G9" s="102"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="98">
         <v>15</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="95"/>
+      <c r="L9" s="127"/>
       <c r="M9" s="49">
         <v>15</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="58" t="s">
+      <c r="P9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="58" t="s">
+      <c r="Q9" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="62"/>
+      <c r="R9" s="59"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="54" t="s">
         <v>257</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="74">
+      <c r="G10" s="103"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="71">
         <v>16</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="63" t="s">
+      <c r="K10" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="95"/>
-      <c r="M10" s="73">
+      <c r="L10" s="127"/>
+      <c r="M10" s="70">
         <v>16</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="57" t="s">
+      <c r="O10" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="P10" s="57" t="s">
+      <c r="P10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="54" t="s">
         <v>17</v>
       </c>
       <c r="R10" s="35"/>
@@ -6105,17 +6120,17 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="74">
+      <c r="G11" s="103"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="71">
         <v>17</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -6124,20 +6139,20 @@
       <c r="K11" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="95"/>
-      <c r="M11" s="74">
+      <c r="L11" s="127"/>
+      <c r="M11" s="71">
         <v>17</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="57" t="s">
+      <c r="O11" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="57" t="s">
+      <c r="Q11" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="35"/>
@@ -6149,14 +6164,14 @@
       <c r="C12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="54" t="s">
         <v>273</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="74">
+      <c r="G12" s="103"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="71">
         <v>18</v>
       </c>
       <c r="J12" s="30" t="s">
@@ -6165,20 +6180,20 @@
       <c r="K12" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="74">
+      <c r="L12" s="127"/>
+      <c r="M12" s="71">
         <v>18</v>
       </c>
       <c r="N12" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O12" s="57" t="s">
+      <c r="O12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q12" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="35"/>
@@ -6187,39 +6202,39 @@
       <c r="B13" s="42">
         <v>5</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E13" s="26"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="74">
+      <c r="G13" s="104"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="71">
         <v>19</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="73">
+      <c r="L13" s="90"/>
+      <c r="M13" s="70">
         <v>19</v>
       </c>
       <c r="N13" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="57" t="s">
+      <c r="Q13" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="35"/>
@@ -6228,39 +6243,39 @@
       <c r="B14" s="42">
         <v>6</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E14" s="26"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="74">
+      <c r="G14" s="104"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="71">
         <v>20</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="L14" s="81"/>
-      <c r="M14" s="73">
+      <c r="L14" s="90"/>
+      <c r="M14" s="70">
         <v>20</v>
       </c>
       <c r="N14" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="57" t="s">
+      <c r="Q14" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="35"/>
@@ -6272,14 +6287,14 @@
       <c r="C15" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="54" t="s">
         <v>261</v>
       </c>
       <c r="E15" s="26"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="74">
+      <c r="G15" s="104"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="71">
         <v>21</v>
       </c>
       <c r="J15" s="30" t="s">
@@ -6288,20 +6303,20 @@
       <c r="K15" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="73">
+      <c r="L15" s="90"/>
+      <c r="M15" s="70">
         <v>21</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="35"/>
@@ -6310,17 +6325,17 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E16" s="26"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="74">
+      <c r="G16" s="104"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="71">
         <v>22</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -6329,20 +6344,20 @@
       <c r="K16" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="73">
+      <c r="L16" s="90"/>
+      <c r="M16" s="70">
         <v>20</v>
       </c>
       <c r="N16" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O16" s="57" t="s">
+      <c r="O16" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="57" t="s">
+      <c r="Q16" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="35"/>
@@ -6351,39 +6366,39 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>263</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="43"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="74">
+      <c r="G17" s="104"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="71">
         <v>23</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="73">
-        <v>23</v>
+      <c r="L17" s="90"/>
+      <c r="M17" s="70">
+        <v>27</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="57" t="s">
+      <c r="O17" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="P17" s="57" t="s">
+      <c r="P17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="57" t="s">
+      <c r="Q17" s="54" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="35"/>
@@ -6392,302 +6407,320 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="54" t="s">
         <v>267</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="43"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="74">
+      <c r="G18" s="104"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="71">
         <v>24</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="K18" s="63" t="s">
+      <c r="K18" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="75">
-        <v>22</v>
-      </c>
-      <c r="N18" s="96" t="s">
+      <c r="L18" s="90"/>
+      <c r="M18" s="72">
+        <v>28</v>
+      </c>
+      <c r="N18" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="72" t="s">
+      <c r="P18" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="72" t="s">
+      <c r="Q18" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R18" s="76"/>
+      <c r="R18" s="73"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="54" t="s">
         <v>274</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="43"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="74">
+      <c r="G19" s="104"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="71">
         <v>25</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="K19" s="63" t="s">
+      <c r="K19" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="86">
+      <c r="L19" s="91"/>
+      <c r="M19" s="83">
         <v>4</v>
       </c>
-      <c r="N19" s="104" t="s">
+      <c r="N19" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="61" t="s">
+      <c r="O19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="61" t="s">
+      <c r="P19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="61" t="s">
+      <c r="Q19" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R19" s="60"/>
-    </row>
-    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="57"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="54" t="s">
         <v>262</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="43"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="103">
+      <c r="G20" s="104"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="71">
         <v>26</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="L20" s="80"/>
-      <c r="M20" s="82">
+      <c r="L20" s="89"/>
+      <c r="M20" s="79">
         <v>24</v>
       </c>
-      <c r="N20" s="98" t="s">
+      <c r="N20" s="94" t="s">
         <v>221</v>
       </c>
-      <c r="O20" s="98" t="s">
+      <c r="O20" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="98" t="s">
+      <c r="P20" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="98" t="s">
+      <c r="Q20" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="62"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="54" t="s">
         <v>262</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="37"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="73">
+      <c r="G21" s="104"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="71">
+        <v>27</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="90"/>
+      <c r="M21" s="70">
         <v>25</v>
       </c>
-      <c r="N21" s="97" t="s">
+      <c r="N21" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="O21" s="97" t="s">
+      <c r="O21" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="P21" s="97" t="s">
+      <c r="P21" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="Q21" s="97" t="s">
+      <c r="Q21" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="68"/>
+      <c r="R21" s="65"/>
     </row>
     <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="128">
+      <c r="B22" s="105">
         <v>14</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="56" t="s">
         <v>257</v>
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="44"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="37"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="73">
+      <c r="G22" s="106"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="99">
+        <v>28</v>
+      </c>
+      <c r="J22" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="101" t="s">
+        <v>288</v>
+      </c>
+      <c r="L22" s="90"/>
+      <c r="M22" s="70">
+        <v>27</v>
+      </c>
+      <c r="N22" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="65"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="78"/>
+      <c r="M23" s="70">
+        <v>22</v>
+      </c>
+      <c r="N23" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="65"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L24" s="78"/>
+      <c r="M24" s="70">
+        <v>15</v>
+      </c>
+      <c r="N24" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="93" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="65"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L25" s="78"/>
+      <c r="M25" s="71">
+        <v>17</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="65"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L26" s="78"/>
+      <c r="M26" s="71">
+        <v>18</v>
+      </c>
+      <c r="N26" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="65"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L27" s="78"/>
+      <c r="M27" s="70">
+        <v>19</v>
+      </c>
+      <c r="N27" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="97" t="s">
+      <c r="P27" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="65"/>
+    </row>
+    <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="81"/>
+      <c r="M28" s="95">
+        <v>28</v>
+      </c>
+      <c r="N28" s="96" t="s">
         <v>221</v>
       </c>
-      <c r="O22" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="97" t="s">
+      <c r="O28" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="68"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="81"/>
-      <c r="M23" s="73">
-        <v>22</v>
-      </c>
-      <c r="N23" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="O23" s="97" t="s">
-        <v>164</v>
-      </c>
-      <c r="P23" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="68"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L24" s="81"/>
-      <c r="M24" s="73">
-        <v>15</v>
-      </c>
-      <c r="N24" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="O24" s="97" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="97" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="68"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L25" s="81"/>
-      <c r="M25" s="74">
-        <v>17</v>
-      </c>
-      <c r="N25" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="O25" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="P25" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="97" t="s">
+      <c r="Q28" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="68"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L26" s="81"/>
-      <c r="M26" s="74">
-        <v>18</v>
-      </c>
-      <c r="N26" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="O26" s="97" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="97" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="68"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L27" s="81"/>
-      <c r="M27" s="73">
-        <v>19</v>
-      </c>
-      <c r="N27" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="O27" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="68"/>
-    </row>
-    <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L28" s="84"/>
-      <c r="M28" s="99">
-        <v>22</v>
-      </c>
-      <c r="N28" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="O28" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="101"/>
+      <c r="R28" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Leasing/Mapeos_UBI_Leasing_V1.xlsx
+++ b/Leasing/Mapeos_UBI_Leasing_V1.xlsx
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="290">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1248,6 +1248,9 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>F_F_AVALUO</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2209,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2371,9 +2374,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2431,8 +2433,12 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2911,7 +2917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2922,8 +2928,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:R92"/>
   <sheetViews>
-    <sheetView topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:K44"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B92" sqref="B84:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2960,26 +2966,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="10"/>
       <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
@@ -2992,11 +2998,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="7"/>
       <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
@@ -3009,11 +3015,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3025,29 +3031,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -4566,7 +4572,7 @@
       <c r="I44" s="99">
         <v>120</v>
       </c>
-      <c r="J44" s="126" t="s">
+      <c r="J44" s="106" t="s">
         <v>287</v>
       </c>
       <c r="K44" s="101" t="s">
@@ -5858,8 +5864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5896,26 +5902,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="28"/>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="32"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
       <c r="G3" s="10"/>
       <c r="H3" s="45"/>
       <c r="I3" s="26" t="s">
@@ -5928,11 +5934,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="120"/>
       <c r="G4" s="7"/>
       <c r="H4" s="46"/>
       <c r="I4" s="41" t="s">
@@ -5945,11 +5951,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="120"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5961,29 +5967,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -6047,9 +6053,9 @@
       <c r="E9" s="24"/>
       <c r="F9" s="40"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="78"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="98">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="52" t="s">
         <v>215</v>
@@ -6057,9 +6063,9 @@
       <c r="K9" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="L9" s="127"/>
+      <c r="L9" s="107"/>
       <c r="M9" s="49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>220</v>
@@ -6088,9 +6094,9 @@
       <c r="E10" s="36"/>
       <c r="F10" s="18"/>
       <c r="G10" s="103"/>
-      <c r="H10" s="78"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="71">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>216</v>
@@ -6098,9 +6104,9 @@
       <c r="K10" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="L10" s="127"/>
+      <c r="L10" s="107"/>
       <c r="M10" s="70">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="36" t="s">
         <v>220</v>
@@ -6129,9 +6135,9 @@
       <c r="E11" s="36"/>
       <c r="F11" s="18"/>
       <c r="G11" s="103"/>
-      <c r="H11" s="78"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>169</v>
@@ -6139,9 +6145,9 @@
       <c r="K11" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="127"/>
+      <c r="L11" s="107"/>
       <c r="M11" s="71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N11" s="36" t="s">
         <v>220</v>
@@ -6170,9 +6176,9 @@
       <c r="E12" s="36"/>
       <c r="F12" s="18"/>
       <c r="G12" s="103"/>
-      <c r="H12" s="78"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="30" t="s">
         <v>171</v>
@@ -6180,9 +6186,9 @@
       <c r="K12" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="127"/>
+      <c r="L12" s="107"/>
       <c r="M12" s="71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N12" s="36" t="s">
         <v>220</v>
@@ -6211,9 +6217,9 @@
       <c r="E13" s="26"/>
       <c r="F13" s="43"/>
       <c r="G13" s="104"/>
-      <c r="H13" s="78"/>
+      <c r="H13" s="90"/>
       <c r="I13" s="71">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>173</v>
@@ -6223,7 +6229,7 @@
       </c>
       <c r="L13" s="90"/>
       <c r="M13" s="70">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13" s="36" t="s">
         <v>220</v>
@@ -6252,9 +6258,9 @@
       <c r="E14" s="26"/>
       <c r="F14" s="43"/>
       <c r="G14" s="104"/>
-      <c r="H14" s="78"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="71">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="30" t="s">
         <v>174</v>
@@ -6264,7 +6270,7 @@
       </c>
       <c r="L14" s="90"/>
       <c r="M14" s="70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N14" s="36" t="s">
         <v>220</v>
@@ -6293,9 +6299,9 @@
       <c r="E15" s="26"/>
       <c r="F15" s="43"/>
       <c r="G15" s="104"/>
-      <c r="H15" s="78"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="71">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>178</v>
@@ -6305,7 +6311,7 @@
       </c>
       <c r="L15" s="90"/>
       <c r="M15" s="70">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N15" s="36" t="s">
         <v>220</v>
@@ -6334,9 +6340,9 @@
       <c r="E16" s="26"/>
       <c r="F16" s="43"/>
       <c r="G16" s="104"/>
-      <c r="H16" s="78"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="71">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>181</v>
@@ -6346,7 +6352,7 @@
       </c>
       <c r="L16" s="90"/>
       <c r="M16" s="70">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="36" t="s">
         <v>220</v>
@@ -6375,9 +6381,9 @@
       <c r="E17" s="26"/>
       <c r="F17" s="43"/>
       <c r="G17" s="104"/>
-      <c r="H17" s="78"/>
+      <c r="H17" s="90"/>
       <c r="I17" s="71">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>217</v>
@@ -6387,7 +6393,7 @@
       </c>
       <c r="L17" s="90"/>
       <c r="M17" s="70">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>220</v>
@@ -6416,9 +6422,9 @@
       <c r="E18" s="26"/>
       <c r="F18" s="43"/>
       <c r="G18" s="104"/>
-      <c r="H18" s="78"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="71">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>218</v>
@@ -6428,7 +6434,7 @@
       </c>
       <c r="L18" s="90"/>
       <c r="M18" s="72">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N18" s="92" t="s">
         <v>220</v>
@@ -6457,9 +6463,9 @@
       <c r="E19" s="26"/>
       <c r="F19" s="43"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="78"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="71">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>219</v>
@@ -6498,9 +6504,9 @@
       <c r="E20" s="26"/>
       <c r="F20" s="43"/>
       <c r="G20" s="104"/>
-      <c r="H20" s="78"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="71">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>186</v>
@@ -6510,7 +6516,7 @@
       </c>
       <c r="L20" s="89"/>
       <c r="M20" s="79">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" s="94" t="s">
         <v>221</v>
@@ -6539,9 +6545,9 @@
       <c r="E21" s="26"/>
       <c r="F21" s="43"/>
       <c r="G21" s="104"/>
-      <c r="H21" s="78"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="71">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>285</v>
@@ -6551,7 +6557,7 @@
       </c>
       <c r="L21" s="90"/>
       <c r="M21" s="70">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N21" s="93" t="s">
         <v>221</v>
@@ -6568,23 +6574,23 @@
       <c r="R21" s="65"/>
     </row>
     <row r="22" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105">
+      <c r="B22" s="42">
         <v>14</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="81"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="91"/>
       <c r="I22" s="99">
-        <v>28</v>
-      </c>
-      <c r="J22" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="106" t="s">
         <v>287</v>
       </c>
       <c r="K22" s="101" t="s">
@@ -6592,7 +6598,7 @@
       </c>
       <c r="L22" s="90"/>
       <c r="M22" s="70">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N22" s="93" t="s">
         <v>221</v>
@@ -6608,10 +6614,22 @@
       </c>
       <c r="R22" s="65"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="105">
+        <v>15</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" s="106"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
       <c r="L23" s="78"/>
       <c r="M23" s="70">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="93" t="s">
         <v>221</v>
@@ -6630,7 +6648,7 @@
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L24" s="78"/>
       <c r="M24" s="70">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24" s="93" t="s">
         <v>221</v>
@@ -6649,7 +6667,7 @@
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L25" s="78"/>
       <c r="M25" s="71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N25" s="93" t="s">
         <v>221</v>
@@ -6668,7 +6686,7 @@
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L26" s="78"/>
       <c r="M26" s="71">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N26" s="93" t="s">
         <v>221</v>
@@ -6687,7 +6705,7 @@
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L27" s="78"/>
       <c r="M27" s="70">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27" s="93" t="s">
         <v>221</v>
@@ -6706,7 +6724,7 @@
     <row r="28" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L28" s="81"/>
       <c r="M28" s="95">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N28" s="96" t="s">
         <v>221</v>
